--- a/cpp/dynamic_programming/data.xlsx
+++ b/cpp/dynamic_programming/data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="MCSS" sheetId="1" state="visible" r:id="rId2"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="15">
   <si>
     <t xml:space="preserve">Time</t>
   </si>
@@ -249,7 +249,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart145.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart37.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -527,11 +527,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="77994001"/>
-        <c:axId val="63214744"/>
+        <c:axId val="697774"/>
+        <c:axId val="27769832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77994001"/>
+        <c:axId val="697774"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -563,7 +563,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63214744"/>
+        <c:crossAx val="27769832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -571,7 +571,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63214744"/>
+        <c:axId val="27769832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -610,7 +610,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77994001"/>
+        <c:crossAx val="697774"/>
         <c:crosses val="min"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -662,7 +662,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart146.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart38.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -958,11 +958,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="33986817"/>
-        <c:axId val="43893809"/>
+        <c:axId val="93392343"/>
+        <c:axId val="82366275"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="33986817"/>
+        <c:axId val="93392343"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -994,7 +994,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="43893809"/>
+        <c:crossAx val="82366275"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1002,7 +1002,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="43893809"/>
+        <c:axId val="82366275"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1041,7 +1041,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="33986817"/>
+        <c:crossAx val="93392343"/>
         <c:crosses val="min"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1093,7 +1093,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart147.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart39.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1389,11 +1389,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="25607876"/>
-        <c:axId val="18693544"/>
+        <c:axId val="137294"/>
+        <c:axId val="74881133"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="25607876"/>
+        <c:axId val="137294"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1425,7 +1425,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="18693544"/>
+        <c:crossAx val="74881133"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1433,7 +1433,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="18693544"/>
+        <c:axId val="74881133"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1472,7 +1472,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="25607876"/>
+        <c:crossAx val="137294"/>
         <c:crosses val="min"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1524,7 +1524,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart148.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart40.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1820,11 +1820,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="70211379"/>
-        <c:axId val="7874238"/>
+        <c:axId val="96312184"/>
+        <c:axId val="816616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="70211379"/>
+        <c:axId val="96312184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1856,7 +1856,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="7874238"/>
+        <c:crossAx val="816616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1864,7 +1864,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="7874238"/>
+        <c:axId val="816616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1903,7 +1903,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70211379"/>
+        <c:crossAx val="96312184"/>
         <c:crosses val="min"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1955,7 +1955,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart149.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart41.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2257,11 +2257,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="1582935"/>
-        <c:axId val="660012"/>
+        <c:axId val="77932839"/>
+        <c:axId val="56764338"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1582935"/>
+        <c:axId val="77932839"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2293,7 +2293,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="660012"/>
+        <c:crossAx val="56764338"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2301,7 +2301,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="660012"/>
+        <c:axId val="56764338"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2340,7 +2340,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1582935"/>
+        <c:crossAx val="77932839"/>
         <c:crosses val="min"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2392,7 +2392,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart150.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart42.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2694,11 +2694,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="20653268"/>
-        <c:axId val="10391920"/>
+        <c:axId val="20370628"/>
+        <c:axId val="85398741"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="20653268"/>
+        <c:axId val="20370628"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2730,7 +2730,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="10391920"/>
+        <c:crossAx val="85398741"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2738,7 +2738,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="10391920"/>
+        <c:axId val="85398741"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2777,7 +2777,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="20653268"/>
+        <c:crossAx val="20370628"/>
         <c:crosses val="min"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2829,7 +2829,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart151.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart43.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3131,11 +3131,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="30123104"/>
-        <c:axId val="18615069"/>
+        <c:axId val="21080876"/>
+        <c:axId val="32834432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="30123104"/>
+        <c:axId val="21080876"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3167,7 +3167,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="18615069"/>
+        <c:crossAx val="32834432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3175,7 +3175,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="18615069"/>
+        <c:axId val="32834432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3214,7 +3214,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="30123104"/>
+        <c:crossAx val="21080876"/>
         <c:crosses val="min"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3266,7 +3266,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart152.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart44.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3568,11 +3568,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="47129566"/>
-        <c:axId val="7286082"/>
+        <c:axId val="86766217"/>
+        <c:axId val="16351533"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="47129566"/>
+        <c:axId val="86766217"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3604,7 +3604,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="7286082"/>
+        <c:crossAx val="16351533"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3612,7 +3612,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="7286082"/>
+        <c:axId val="16351533"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3651,7 +3651,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47129566"/>
+        <c:crossAx val="86766217"/>
         <c:crosses val="min"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3703,7 +3703,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart153.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart45.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4008,11 +4008,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="84127408"/>
-        <c:axId val="85747536"/>
+        <c:axId val="7533081"/>
+        <c:axId val="67587258"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="84127408"/>
+        <c:axId val="7533081"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4044,7 +4044,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="85747536"/>
+        <c:crossAx val="67587258"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4052,7 +4052,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85747536"/>
+        <c:axId val="67587258"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4091,7 +4091,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84127408"/>
+        <c:crossAx val="7533081"/>
         <c:crosses val="min"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4143,7 +4143,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart154.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart46.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4445,11 +4445,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="94314027"/>
-        <c:axId val="30148096"/>
+        <c:axId val="40864253"/>
+        <c:axId val="68811098"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="94314027"/>
+        <c:axId val="40864253"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4481,7 +4481,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="30148096"/>
+        <c:crossAx val="68811098"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4489,7 +4489,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="30148096"/>
+        <c:axId val="68811098"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4528,7 +4528,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94314027"/>
+        <c:crossAx val="40864253"/>
         <c:crosses val="min"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4580,7 +4580,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart155.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart47.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4882,11 +4882,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="84202411"/>
-        <c:axId val="9915477"/>
+        <c:axId val="31243244"/>
+        <c:axId val="66312997"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="84202411"/>
+        <c:axId val="31243244"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4918,7 +4918,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="9915477"/>
+        <c:crossAx val="66312997"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4926,7 +4926,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="9915477"/>
+        <c:axId val="66312997"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4965,7 +4965,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84202411"/>
+        <c:crossAx val="31243244"/>
         <c:crosses val="min"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5017,7 +5017,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart156.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart48.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5319,11 +5319,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="40591751"/>
-        <c:axId val="22390158"/>
+        <c:axId val="54731530"/>
+        <c:axId val="29306138"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="40591751"/>
+        <c:axId val="54731530"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5355,7 +5355,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="22390158"/>
+        <c:crossAx val="29306138"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5363,7 +5363,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="22390158"/>
+        <c:axId val="29306138"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5402,7 +5402,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="40591751"/>
+        <c:crossAx val="54731530"/>
         <c:crosses val="min"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5454,7 +5454,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart157.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart49.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5750,11 +5750,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="19802686"/>
-        <c:axId val="80175037"/>
+        <c:axId val="75672441"/>
+        <c:axId val="14676219"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="19802686"/>
+        <c:axId val="75672441"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5786,7 +5786,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80175037"/>
+        <c:crossAx val="14676219"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5794,7 +5794,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80175037"/>
+        <c:axId val="14676219"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5833,7 +5833,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="19802686"/>
+        <c:crossAx val="75672441"/>
         <c:crosses val="min"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5885,7 +5885,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart158.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart50.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6181,11 +6181,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="91912138"/>
-        <c:axId val="86954099"/>
+        <c:axId val="75408644"/>
+        <c:axId val="46065539"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="91912138"/>
+        <c:axId val="75408644"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6217,7 +6217,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86954099"/>
+        <c:crossAx val="46065539"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6225,7 +6225,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86954099"/>
+        <c:axId val="46065539"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6264,7 +6264,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91912138"/>
+        <c:crossAx val="75408644"/>
         <c:crosses val="min"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6316,7 +6316,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart159.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart51.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6612,11 +6612,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="23836050"/>
-        <c:axId val="54947108"/>
+        <c:axId val="12403462"/>
+        <c:axId val="20773676"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="23836050"/>
+        <c:axId val="12403462"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6648,7 +6648,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="54947108"/>
+        <c:crossAx val="20773676"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6656,7 +6656,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="54947108"/>
+        <c:axId val="20773676"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6695,7 +6695,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="23836050"/>
+        <c:crossAx val="12403462"/>
         <c:crosses val="min"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6747,7 +6747,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart160.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart52.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -7043,11 +7043,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="69929539"/>
-        <c:axId val="45764431"/>
+        <c:axId val="1461091"/>
+        <c:axId val="84435546"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="69929539"/>
+        <c:axId val="1461091"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7079,7 +7079,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="45764431"/>
+        <c:crossAx val="84435546"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7087,7 +7087,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="45764431"/>
+        <c:axId val="84435546"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7126,7 +7126,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69929539"/>
+        <c:crossAx val="1461091"/>
         <c:crosses val="min"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7178,7 +7178,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart161.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart53.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -7462,11 +7462,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="74566269"/>
-        <c:axId val="94815587"/>
+        <c:axId val="80721822"/>
+        <c:axId val="7699033"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="74566269"/>
+        <c:axId val="80721822"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7498,7 +7498,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94815587"/>
+        <c:crossAx val="7699033"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7506,7 +7506,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94815587"/>
+        <c:axId val="7699033"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7545,7 +7545,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74566269"/>
+        <c:crossAx val="80721822"/>
         <c:crosses val="min"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7597,7 +7597,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart162.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart54.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -7881,11 +7881,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="78759162"/>
-        <c:axId val="35650566"/>
+        <c:axId val="87682794"/>
+        <c:axId val="81551164"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="78759162"/>
+        <c:axId val="87682794"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7917,7 +7917,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="35650566"/>
+        <c:crossAx val="81551164"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7925,7 +7925,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="35650566"/>
+        <c:axId val="81551164"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7964,7 +7964,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78759162"/>
+        <c:crossAx val="87682794"/>
         <c:crosses val="min"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8016,7 +8016,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart163.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart55.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -8300,11 +8300,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="15194704"/>
-        <c:axId val="21972212"/>
+        <c:axId val="52829739"/>
+        <c:axId val="54589911"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="15194704"/>
+        <c:axId val="52829739"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8336,7 +8336,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="21972212"/>
+        <c:crossAx val="54589911"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8344,7 +8344,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="21972212"/>
+        <c:axId val="54589911"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8383,7 +8383,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="15194704"/>
+        <c:crossAx val="52829739"/>
         <c:crosses val="min"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8435,7 +8435,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart164.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart56.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -8719,11 +8719,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="28712250"/>
-        <c:axId val="26471968"/>
+        <c:axId val="42077548"/>
+        <c:axId val="65455000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="28712250"/>
+        <c:axId val="42077548"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8755,7 +8755,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="26471968"/>
+        <c:crossAx val="65455000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8763,7 +8763,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="26471968"/>
+        <c:axId val="65455000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8802,7 +8802,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="28712250"/>
+        <c:crossAx val="42077548"/>
         <c:crosses val="min"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8854,7 +8854,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart165.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart57.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -9150,11 +9150,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="49998328"/>
-        <c:axId val="59742794"/>
+        <c:axId val="61382333"/>
+        <c:axId val="70248901"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="49998328"/>
+        <c:axId val="61382333"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9186,7 +9186,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59742794"/>
+        <c:crossAx val="70248901"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9194,7 +9194,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="59742794"/>
+        <c:axId val="70248901"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9233,7 +9233,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="49998328"/>
+        <c:crossAx val="61382333"/>
         <c:crosses val="min"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9285,7 +9285,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart166.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart58.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -9581,11 +9581,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="88257099"/>
-        <c:axId val="79600996"/>
+        <c:axId val="91919246"/>
+        <c:axId val="58088295"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="88257099"/>
+        <c:axId val="91919246"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9617,7 +9617,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79600996"/>
+        <c:crossAx val="58088295"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9625,7 +9625,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79600996"/>
+        <c:axId val="58088295"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9664,7 +9664,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88257099"/>
+        <c:crossAx val="91919246"/>
         <c:crosses val="min"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9716,7 +9716,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart167.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart59.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -10012,11 +10012,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="8005695"/>
-        <c:axId val="26737787"/>
+        <c:axId val="73974357"/>
+        <c:axId val="22982959"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="8005695"/>
+        <c:axId val="73974357"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10048,7 +10048,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="26737787"/>
+        <c:crossAx val="22982959"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10056,7 +10056,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="26737787"/>
+        <c:axId val="22982959"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10095,7 +10095,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8005695"/>
+        <c:crossAx val="73974357"/>
         <c:crosses val="min"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10147,7 +10147,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart168.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart60.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -10443,11 +10443,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="94447183"/>
-        <c:axId val="72312061"/>
+        <c:axId val="94187930"/>
+        <c:axId val="45039044"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="94447183"/>
+        <c:axId val="94187930"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10479,7 +10479,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72312061"/>
+        <c:crossAx val="45039044"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10487,7 +10487,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="72312061"/>
+        <c:axId val="45039044"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10526,7 +10526,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94447183"/>
+        <c:crossAx val="94187930"/>
         <c:crosses val="min"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10578,7 +10578,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart169.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart61.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -10874,11 +10874,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="56465333"/>
-        <c:axId val="55953360"/>
+        <c:axId val="30780491"/>
+        <c:axId val="65296698"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="56465333"/>
+        <c:axId val="30780491"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10910,7 +10910,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="55953360"/>
+        <c:crossAx val="65296698"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10918,7 +10918,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="55953360"/>
+        <c:axId val="65296698"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10957,7 +10957,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="56465333"/>
+        <c:crossAx val="30780491"/>
         <c:crosses val="min"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11009,7 +11009,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart170.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart62.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -11305,11 +11305,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="2646674"/>
-        <c:axId val="93009401"/>
+        <c:axId val="43676001"/>
+        <c:axId val="91576849"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2646674"/>
+        <c:axId val="43676001"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11341,7 +11341,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93009401"/>
+        <c:crossAx val="91576849"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11349,7 +11349,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93009401"/>
+        <c:axId val="91576849"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11388,7 +11388,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2646674"/>
+        <c:crossAx val="43676001"/>
         <c:crosses val="min"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11440,7 +11440,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart171.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart63.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -11736,11 +11736,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="8945896"/>
-        <c:axId val="75215823"/>
+        <c:axId val="78913663"/>
+        <c:axId val="34113020"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="8945896"/>
+        <c:axId val="78913663"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11772,7 +11772,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75215823"/>
+        <c:crossAx val="34113020"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11780,7 +11780,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75215823"/>
+        <c:axId val="34113020"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11819,7 +11819,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8945896"/>
+        <c:crossAx val="78913663"/>
         <c:crosses val="min"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11871,7 +11871,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart172.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart64.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -12143,11 +12143,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="89993126"/>
-        <c:axId val="70010403"/>
+        <c:axId val="48865576"/>
+        <c:axId val="74936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="89993126"/>
+        <c:axId val="48865576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12179,7 +12179,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70010403"/>
+        <c:crossAx val="74936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12187,7 +12187,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70010403"/>
+        <c:axId val="74936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12226,7 +12226,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89993126"/>
+        <c:crossAx val="48865576"/>
         <c:crosses val="min"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12278,7 +12278,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart173.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart65.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -12559,11 +12559,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="55809196"/>
-        <c:axId val="47944534"/>
+        <c:axId val="61867034"/>
+        <c:axId val="1739047"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="55809196"/>
+        <c:axId val="61867034"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12595,7 +12595,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47944534"/>
+        <c:crossAx val="1739047"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12603,7 +12603,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="47944534"/>
+        <c:axId val="1739047"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12642,7 +12642,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="55809196"/>
+        <c:crossAx val="61867034"/>
         <c:crosses val="min"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12694,7 +12694,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart174.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart66.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -12984,11 +12984,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="4157849"/>
-        <c:axId val="9368372"/>
+        <c:axId val="52978205"/>
+        <c:axId val="87532101"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="4157849"/>
+        <c:axId val="52978205"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13020,7 +13020,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="9368372"/>
+        <c:crossAx val="87532101"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13028,7 +13028,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="9368372"/>
+        <c:axId val="87532101"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13067,7 +13067,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="4157849"/>
+        <c:crossAx val="52978205"/>
         <c:crosses val="min"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13119,7 +13119,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart175.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart67.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -13409,11 +13409,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="25158389"/>
-        <c:axId val="88985326"/>
+        <c:axId val="16755516"/>
+        <c:axId val="32878401"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="25158389"/>
+        <c:axId val="16755516"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13445,7 +13445,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88985326"/>
+        <c:crossAx val="32878401"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13453,7 +13453,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88985326"/>
+        <c:axId val="32878401"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13492,7 +13492,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="25158389"/>
+        <c:crossAx val="16755516"/>
         <c:crosses val="min"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13544,7 +13544,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart176.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart68.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -13810,11 +13810,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="15938499"/>
-        <c:axId val="28721499"/>
+        <c:axId val="56600595"/>
+        <c:axId val="16902150"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="15938499"/>
+        <c:axId val="56600595"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13846,7 +13846,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="28721499"/>
+        <c:crossAx val="16902150"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13854,7 +13854,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="28721499"/>
+        <c:axId val="16902150"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13893,7 +13893,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="15938499"/>
+        <c:crossAx val="56600595"/>
         <c:crosses val="min"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13945,7 +13945,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart177.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart69.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -14229,11 +14229,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="61482108"/>
-        <c:axId val="99578336"/>
+        <c:axId val="60944760"/>
+        <c:axId val="18932349"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="61482108"/>
+        <c:axId val="60944760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14265,7 +14265,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99578336"/>
+        <c:crossAx val="18932349"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14273,7 +14273,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99578336"/>
+        <c:axId val="18932349"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14312,7 +14312,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61482108"/>
+        <c:crossAx val="60944760"/>
         <c:crosses val="min"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14364,7 +14364,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart178.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart70.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -14654,11 +14654,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="75225879"/>
-        <c:axId val="8282958"/>
+        <c:axId val="45112552"/>
+        <c:axId val="26808140"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="75225879"/>
+        <c:axId val="45112552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14690,7 +14690,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8282958"/>
+        <c:crossAx val="26808140"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14698,7 +14698,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="8282958"/>
+        <c:axId val="26808140"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14737,7 +14737,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75225879"/>
+        <c:crossAx val="45112552"/>
         <c:crosses val="min"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14789,7 +14789,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart179.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart71.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -15079,11 +15079,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="22342808"/>
-        <c:axId val="51311949"/>
+        <c:axId val="33646735"/>
+        <c:axId val="90227779"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="22342808"/>
+        <c:axId val="33646735"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15115,7 +15115,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="51311949"/>
+        <c:crossAx val="90227779"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15123,7 +15123,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51311949"/>
+        <c:axId val="90227779"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15162,7 +15162,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="22342808"/>
+        <c:crossAx val="33646735"/>
         <c:crosses val="min"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15214,7 +15214,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart180.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart72.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -15480,11 +15480,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="50663174"/>
-        <c:axId val="67900669"/>
+        <c:axId val="77222984"/>
+        <c:axId val="96819458"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="50663174"/>
+        <c:axId val="77222984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15516,7 +15516,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67900669"/>
+        <c:crossAx val="96819458"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15524,7 +15524,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67900669"/>
+        <c:axId val="96819458"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15563,7 +15563,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50663174"/>
+        <c:crossAx val="77222984"/>
         <c:crosses val="min"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15626,9 +15626,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>676080</xdr:colOff>
+      <xdr:colOff>675720</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>2880</xdr:rowOff>
+      <xdr:rowOff>2520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -15637,7 +15637,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="16940880" y="374760"/>
-        <a:ext cx="4933800" cy="2782800"/>
+        <a:ext cx="4933440" cy="2782440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -15656,9 +15656,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>586800</xdr:colOff>
+      <xdr:colOff>586440</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>147240</xdr:rowOff>
+      <xdr:rowOff>146880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -15667,7 +15667,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="16853760" y="3498480"/>
-        <a:ext cx="4931640" cy="2782800"/>
+        <a:ext cx="4931280" cy="2782440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -15686,9 +15686,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>566280</xdr:colOff>
+      <xdr:colOff>565920</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>151560</xdr:rowOff>
+      <xdr:rowOff>151200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -15697,7 +15697,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="16833240" y="6309360"/>
-        <a:ext cx="4931640" cy="2780280"/>
+        <a:ext cx="4931280" cy="2779920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -15716,9 +15716,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>500400</xdr:colOff>
+      <xdr:colOff>500040</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>151560</xdr:rowOff>
+      <xdr:rowOff>151200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -15727,7 +15727,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="16767360" y="9113400"/>
-        <a:ext cx="4931640" cy="2780280"/>
+        <a:ext cx="4931280" cy="2779920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -15751,9 +15751,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>676080</xdr:colOff>
+      <xdr:colOff>675720</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>2880</xdr:rowOff>
+      <xdr:rowOff>2520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -15762,7 +15762,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="16940880" y="374760"/>
-        <a:ext cx="4933800" cy="2782800"/>
+        <a:ext cx="4933440" cy="2782440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -15781,9 +15781,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>586800</xdr:colOff>
+      <xdr:colOff>586440</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>147240</xdr:rowOff>
+      <xdr:rowOff>146880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -15792,7 +15792,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="16853760" y="3498480"/>
-        <a:ext cx="4931640" cy="2782800"/>
+        <a:ext cx="4931280" cy="2782440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -15811,9 +15811,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>566280</xdr:colOff>
+      <xdr:colOff>565920</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>154080</xdr:rowOff>
+      <xdr:rowOff>153720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -15822,7 +15822,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="16833240" y="6837840"/>
-        <a:ext cx="4931640" cy="2780280"/>
+        <a:ext cx="4931280" cy="2779920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -15841,9 +15841,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>500400</xdr:colOff>
+      <xdr:colOff>500040</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>154080</xdr:rowOff>
+      <xdr:rowOff>153720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -15852,7 +15852,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="16767360" y="9641880"/>
-        <a:ext cx="4931640" cy="2780280"/>
+        <a:ext cx="4931280" cy="2779920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -15869,16 +15869,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>634320</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>686520</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>24480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>676080</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>2880</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>727920</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>2520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -15886,8 +15886,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="16940880" y="374760"/>
-        <a:ext cx="4933800" cy="2782800"/>
+        <a:off x="18623880" y="199440"/>
+        <a:ext cx="4933440" cy="2782440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -15899,16 +15899,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>547200</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>168840</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>639000</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>20520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>586800</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>678240</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>147240</xdr:rowOff>
+      <xdr:rowOff>173880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -15916,8 +15916,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="16853760" y="3498480"/>
-        <a:ext cx="4931640" cy="2782800"/>
+        <a:off x="18576360" y="3525480"/>
+        <a:ext cx="4931280" cy="2782440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -15936,9 +15936,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>566280</xdr:colOff>
+      <xdr:colOff>565920</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>154080</xdr:rowOff>
+      <xdr:rowOff>153720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -15947,7 +15947,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="16833240" y="6837840"/>
-        <a:ext cx="4931640" cy="2780280"/>
+        <a:ext cx="4931280" cy="2779920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -15966,9 +15966,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>500400</xdr:colOff>
+      <xdr:colOff>500040</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>154080</xdr:rowOff>
+      <xdr:rowOff>153720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -15977,7 +15977,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="16767360" y="9641880"/>
-        <a:ext cx="4931640" cy="2780280"/>
+        <a:ext cx="4931280" cy="2779920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -16001,9 +16001,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>477360</xdr:colOff>
+      <xdr:colOff>477000</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>2880</xdr:rowOff>
+      <xdr:rowOff>2520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -16012,7 +16012,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="15613920" y="374760"/>
-        <a:ext cx="4560840" cy="2782800"/>
+        <a:ext cx="4560480" cy="2782440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -16031,9 +16031,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>394920</xdr:colOff>
+      <xdr:colOff>394560</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>147240</xdr:rowOff>
+      <xdr:rowOff>146880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -16042,7 +16042,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="15533280" y="3498480"/>
-        <a:ext cx="4559040" cy="2782800"/>
+        <a:ext cx="4558680" cy="2782440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -16061,9 +16061,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>375840</xdr:colOff>
+      <xdr:colOff>375480</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>151560</xdr:rowOff>
+      <xdr:rowOff>151200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -16072,7 +16072,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="15514200" y="6309360"/>
-        <a:ext cx="4559040" cy="2780280"/>
+        <a:ext cx="4558680" cy="2779920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -16091,9 +16091,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>315000</xdr:colOff>
+      <xdr:colOff>314640</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>151560</xdr:rowOff>
+      <xdr:rowOff>151200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -16102,7 +16102,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="15453360" y="9113400"/>
-        <a:ext cx="4559040" cy="2780280"/>
+        <a:ext cx="4558680" cy="2779920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -16126,9 +16126,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>27360</xdr:colOff>
+      <xdr:colOff>27000</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>158760</xdr:rowOff>
+      <xdr:rowOff>158400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -16137,7 +16137,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="16269120" y="180000"/>
-        <a:ext cx="4560840" cy="2782800"/>
+        <a:ext cx="4560480" cy="2782440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -16156,9 +16156,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>615600</xdr:colOff>
+      <xdr:colOff>615240</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>168840</xdr:rowOff>
+      <xdr:rowOff>168480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -16167,7 +16167,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="16188480" y="4045680"/>
-        <a:ext cx="4559040" cy="2782800"/>
+        <a:ext cx="4558680" cy="2782440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -16186,9 +16186,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>596520</xdr:colOff>
+      <xdr:colOff>596160</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -16197,7 +16197,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="16169400" y="6904440"/>
-        <a:ext cx="4559040" cy="2780280"/>
+        <a:ext cx="4558680" cy="2779920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -16216,9 +16216,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>535680</xdr:colOff>
+      <xdr:colOff>535320</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>88560</xdr:rowOff>
+      <xdr:rowOff>88200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -16227,7 +16227,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="16108560" y="9751680"/>
-        <a:ext cx="4559040" cy="2780280"/>
+        <a:ext cx="4558680" cy="2779920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -16244,16 +16244,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>165600</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>5040</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>336240</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>44640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>32400</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>203040</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>158760</xdr:rowOff>
+      <xdr:rowOff>23040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -16261,8 +16261,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="15839640" y="180000"/>
-        <a:ext cx="4560840" cy="2782800"/>
+        <a:off x="17351640" y="44640"/>
+        <a:ext cx="4560480" cy="2782440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -16274,16 +16274,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>84960</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>360720</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>17280</xdr:rowOff>
+      <xdr:rowOff>30960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>620640</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>171000</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>225720</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>9000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -16291,8 +16291,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="15759000" y="3346920"/>
-        <a:ext cx="4559040" cy="2782800"/>
+        <a:off x="17376120" y="3360600"/>
+        <a:ext cx="4558680" cy="2782440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -16311,9 +16311,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>601560</xdr:colOff>
+      <xdr:colOff>601200</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>43200</xdr:rowOff>
+      <xdr:rowOff>42840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -16322,7 +16322,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="15739920" y="6201000"/>
-        <a:ext cx="4559040" cy="2780280"/>
+        <a:ext cx="4558680" cy="2779920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -16341,9 +16341,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>540720</xdr:colOff>
+      <xdr:colOff>540360</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>88920</xdr:rowOff>
+      <xdr:rowOff>88560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -16352,7 +16352,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="15679080" y="9050760"/>
-        <a:ext cx="4559040" cy="2780280"/>
+        <a:ext cx="4558680" cy="2779920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -16376,9 +16376,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>658080</xdr:colOff>
+      <xdr:colOff>657720</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>158760</xdr:rowOff>
+      <xdr:rowOff>158400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -16387,7 +16387,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="16610760" y="180000"/>
-        <a:ext cx="4415400" cy="2782800"/>
+        <a:ext cx="4415040" cy="2782440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -16406,9 +16406,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>115200</xdr:colOff>
+      <xdr:colOff>114840</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>49320</xdr:rowOff>
+      <xdr:rowOff>48960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -16417,7 +16417,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="16740360" y="3225240"/>
-        <a:ext cx="4413600" cy="2782800"/>
+        <a:ext cx="4413240" cy="2782440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -16436,9 +16436,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>543600</xdr:colOff>
+      <xdr:colOff>543240</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>83520</xdr:rowOff>
+      <xdr:rowOff>83160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -16447,7 +16447,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="16498080" y="6241320"/>
-        <a:ext cx="4413600" cy="2780280"/>
+        <a:ext cx="4413240" cy="2779920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -16466,9 +16466,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>351360</xdr:colOff>
+      <xdr:colOff>351000</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>88920</xdr:rowOff>
+      <xdr:rowOff>88560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -16477,7 +16477,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="16305840" y="9226080"/>
-        <a:ext cx="4413600" cy="2780280"/>
+        <a:ext cx="4413240" cy="2779920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -16501,9 +16501,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>224640</xdr:colOff>
+      <xdr:colOff>224280</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>10800</xdr:rowOff>
+      <xdr:rowOff>10440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -16512,7 +16512,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="16848000" y="207360"/>
-        <a:ext cx="4415400" cy="2782800"/>
+        <a:ext cx="4415040" cy="2782440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -16531,9 +16531,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>23760</xdr:colOff>
+      <xdr:colOff>23400</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>101520</xdr:rowOff>
+      <xdr:rowOff>101160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -16542,7 +16542,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="15978240" y="3277440"/>
-        <a:ext cx="4413600" cy="2782800"/>
+        <a:ext cx="4413240" cy="2782440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -16561,9 +16561,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>18000</xdr:colOff>
+      <xdr:colOff>17640</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>113400</xdr:rowOff>
+      <xdr:rowOff>113040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -16572,7 +16572,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="15972480" y="6095880"/>
-        <a:ext cx="4413600" cy="2780280"/>
+        <a:ext cx="4413240" cy="2779920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -16591,9 +16591,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>75240</xdr:colOff>
+      <xdr:colOff>74880</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>20880</xdr:rowOff>
+      <xdr:rowOff>20520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -16602,7 +16602,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="16029720" y="9158040"/>
-        <a:ext cx="4413600" cy="2780280"/>
+        <a:ext cx="4413240" cy="2779920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -16626,9 +16626,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>605880</xdr:colOff>
+      <xdr:colOff>605520</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>10440</xdr:rowOff>
+      <xdr:rowOff>10080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -16637,7 +16637,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="17229240" y="207000"/>
-        <a:ext cx="4415400" cy="2782800"/>
+        <a:ext cx="4415040" cy="2782440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -16656,9 +16656,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>352800</xdr:colOff>
+      <xdr:colOff>352440</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>46800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -16667,7 +16667,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="15636600" y="3223080"/>
-        <a:ext cx="4413600" cy="2782800"/>
+        <a:ext cx="4413240" cy="2782440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -16686,9 +16686,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>451800</xdr:colOff>
+      <xdr:colOff>451440</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>100080</xdr:rowOff>
+      <xdr:rowOff>99720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -16697,7 +16697,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="15735600" y="6082560"/>
-        <a:ext cx="4413600" cy="2780280"/>
+        <a:ext cx="4413240" cy="2779920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -16716,9 +16716,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>456480</xdr:colOff>
+      <xdr:colOff>456120</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>34560</xdr:rowOff>
+      <xdr:rowOff>34200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -16727,7 +16727,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="15740280" y="8996400"/>
-        <a:ext cx="4413600" cy="2780280"/>
+        <a:ext cx="4413240" cy="2779920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -16748,7 +16748,7 @@
   <dimension ref="A1:S70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T41" activeCellId="0" sqref="T41"/>
+      <selection pane="topLeft" activeCell="T41" activeCellId="1" sqref="S2:V2 T41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18917,8 +18917,8 @@
   </sheetPr>
   <dimension ref="A1:S67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AC24" activeCellId="0" sqref="AC24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C9" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AC24" activeCellId="1" sqref="S2:V2 AC24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21089,10 +21089,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S67"/>
+  <dimension ref="A1:V67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I63" activeCellId="0" sqref="I63"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G13" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L19" activeCellId="1" sqref="S2:V2 L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21157,6 +21157,18 @@
       <c r="Q2" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="S2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="V2" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="n">
@@ -21210,6 +21222,18 @@
         <f aca="false">(SUM(C3:N3)-O3-P3)/10</f>
         <v>0.17361</v>
       </c>
+      <c r="S3" s="0" t="n">
+        <v>8000</v>
+      </c>
+      <c r="T3" s="0" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="U3" s="0" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="V3" s="0" t="n">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="n">
@@ -21263,6 +21287,18 @@
         <f aca="false">(SUM(C4:N4)-O4-P4)/10</f>
         <v>0.6794</v>
       </c>
+      <c r="S4" s="0" t="n">
+        <v>16000</v>
+      </c>
+      <c r="T4" s="0" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="U4" s="0" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="V4" s="0" t="n">
+        <v>6.1</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="n">
@@ -21316,6 +21352,18 @@
         <f aca="false">(SUM(C5:N5)-O5-P5)/10</f>
         <v>1.51581</v>
       </c>
+      <c r="S5" s="0" t="n">
+        <v>24000</v>
+      </c>
+      <c r="T5" s="0" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="U5" s="0" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="V5" s="0" t="n">
+        <v>13.8</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="n">
@@ -21369,6 +21417,18 @@
         <f aca="false">(SUM(C6:N6)-O6-P6)/10</f>
         <v>2.68145</v>
       </c>
+      <c r="S6" s="0" t="n">
+        <v>32000</v>
+      </c>
+      <c r="T6" s="0" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="U6" s="0" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="V6" s="0" t="n">
+        <v>24.5</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="n">
@@ -21422,6 +21482,18 @@
         <f aca="false">(SUM(C7:N7)-O7-P7)/10</f>
         <v>4.23698</v>
       </c>
+      <c r="S7" s="0" t="n">
+        <v>40000</v>
+      </c>
+      <c r="T7" s="0" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="U7" s="0" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="V7" s="0" t="n">
+        <v>39.2</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="n">
@@ -21475,6 +21547,18 @@
         <f aca="false">(SUM(C8:N8)-O8-P8)/10</f>
         <v>6.08596</v>
       </c>
+      <c r="S8" s="0" t="n">
+        <v>48000</v>
+      </c>
+      <c r="T8" s="0" t="n">
+        <v>55.3</v>
+      </c>
+      <c r="U8" s="0" t="n">
+        <v>55.3</v>
+      </c>
+      <c r="V8" s="0" t="n">
+        <v>55.3</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="n">
@@ -21528,6 +21612,18 @@
         <f aca="false">(SUM(C9:N9)-O9-P9)/10</f>
         <v>8.49011</v>
       </c>
+      <c r="S9" s="0" t="n">
+        <v>56000</v>
+      </c>
+      <c r="T9" s="0" t="n">
+        <v>75.4</v>
+      </c>
+      <c r="U9" s="0" t="n">
+        <v>75.4</v>
+      </c>
+      <c r="V9" s="0" t="n">
+        <v>75.4</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
@@ -21544,6 +21640,18 @@
       </c>
       <c r="Q14" s="0" t="s">
         <v>5</v>
+      </c>
+      <c r="S14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="V14" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21559,6 +21667,18 @@
         <f aca="false">(SUM(C15:N15)-O15-P15)/10</f>
         <v>0</v>
       </c>
+      <c r="S15" s="0" t="n">
+        <v>8000</v>
+      </c>
+      <c r="T15" s="0" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="U15" s="0" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="V15" s="0" t="n">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O16" s="0" t="n">
@@ -21573,6 +21693,18 @@
         <f aca="false">(SUM(C16:N16)-O16-P16)/10</f>
         <v>0</v>
       </c>
+      <c r="S16" s="0" t="n">
+        <v>16000</v>
+      </c>
+      <c r="T16" s="0" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="U16" s="0" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="V16" s="0" t="n">
+        <v>6.1</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O17" s="0" t="n">
@@ -21587,6 +21719,18 @@
         <f aca="false">(SUM(C17:N17)-O17-P17)/10</f>
         <v>0</v>
       </c>
+      <c r="S17" s="0" t="n">
+        <v>24000</v>
+      </c>
+      <c r="T17" s="0" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="U17" s="0" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="V17" s="0" t="n">
+        <v>13.8</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O18" s="0" t="n">
@@ -21601,6 +21745,18 @@
         <f aca="false">(SUM(C18:N18)-O18-P18)/10</f>
         <v>0</v>
       </c>
+      <c r="S18" s="0" t="n">
+        <v>32000</v>
+      </c>
+      <c r="T18" s="0" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="U18" s="0" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="V18" s="0" t="n">
+        <v>24.5</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O19" s="0" t="n">
@@ -21615,6 +21771,18 @@
         <f aca="false">(SUM(C19:N19)-O19-P19)/10</f>
         <v>0</v>
       </c>
+      <c r="S19" s="0" t="n">
+        <v>40000</v>
+      </c>
+      <c r="T19" s="0" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="U19" s="0" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="V19" s="0" t="n">
+        <v>39.2</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O20" s="0" t="n">
@@ -21629,6 +21797,18 @@
         <f aca="false">(SUM(C20:N20)-O20-P20)/10</f>
         <v>0</v>
       </c>
+      <c r="S20" s="0" t="n">
+        <v>48000</v>
+      </c>
+      <c r="T20" s="0" t="n">
+        <v>55.3</v>
+      </c>
+      <c r="U20" s="0" t="n">
+        <v>55.3</v>
+      </c>
+      <c r="V20" s="0" t="n">
+        <v>55.3</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O21" s="0" t="n">
@@ -21642,6 +21822,18 @@
       <c r="Q21" s="0" t="n">
         <f aca="false">(SUM(C21:N21)-O21-P21)/10</f>
         <v>0</v>
+      </c>
+      <c r="S21" s="0" t="n">
+        <v>56000</v>
+      </c>
+      <c r="T21" s="0" t="n">
+        <v>75.4</v>
+      </c>
+      <c r="U21" s="0" t="n">
+        <v>75.4</v>
+      </c>
+      <c r="V21" s="0" t="n">
+        <v>75.4</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22970,8 +23162,8 @@
   </sheetPr>
   <dimension ref="A1:S42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="1" sqref="S2:V2 C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -23699,8 +23891,8 @@
   </sheetPr>
   <dimension ref="A1:S77"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S47" activeCellId="0" sqref="S47"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S47" activeCellId="1" sqref="S2:V2 S47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -26393,10 +26585,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S69"/>
+  <dimension ref="A1:V69"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S2" activeCellId="0" sqref="S2:V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -26462,6 +26654,18 @@
       <c r="Q2" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="S2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="V2" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="n">
@@ -26939,6 +27143,18 @@
       <c r="Q12" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="S12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="V12" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="n">
@@ -26992,6 +27208,18 @@
         <f aca="false">(SUM(C13:N13)-O13-P13)/10</f>
         <v>0.149</v>
       </c>
+      <c r="S13" s="0" t="n">
+        <v>7500</v>
+      </c>
+      <c r="T13" s="0" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U13" s="0" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V13" s="0" t="n">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="n">
@@ -27045,6 +27273,18 @@
         <f aca="false">(SUM(C14:N14)-O14-P14)/10</f>
         <v>0.5976</v>
       </c>
+      <c r="S14" s="0" t="n">
+        <v>15000</v>
+      </c>
+      <c r="T14" s="0" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="U14" s="0" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="V14" s="0" t="n">
+        <v>5.4</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="n">
@@ -27098,6 +27338,18 @@
         <f aca="false">(SUM(C15:N15)-O15-P15)/10</f>
         <v>1.3467</v>
       </c>
+      <c r="S15" s="0" t="n">
+        <v>22500</v>
+      </c>
+      <c r="T15" s="0" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="U15" s="0" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="V15" s="0" t="n">
+        <v>12.1</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="n">
@@ -27151,6 +27403,18 @@
         <f aca="false">(SUM(C16:N16)-O16-P16)/10</f>
         <v>2.4001</v>
       </c>
+      <c r="S16" s="0" t="n">
+        <v>30000</v>
+      </c>
+      <c r="T16" s="0" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="U16" s="0" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="V16" s="0" t="n">
+        <v>21.5</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="n">
@@ -27204,6 +27468,18 @@
         <f aca="false">(SUM(C17:N17)-O17-P17)/10</f>
         <v>3.744</v>
       </c>
+      <c r="S17" s="0" t="n">
+        <v>37500</v>
+      </c>
+      <c r="T17" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="U17" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="V17" s="0" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="n">
@@ -27257,6 +27533,18 @@
         <f aca="false">(SUM(C18:N18)-O18-P18)/10</f>
         <v>5.4</v>
       </c>
+      <c r="S18" s="0" t="n">
+        <v>45000</v>
+      </c>
+      <c r="T18" s="0" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="U18" s="0" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="V18" s="0" t="n">
+        <v>48.5</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="n">
@@ -27310,6 +27598,18 @@
         <f aca="false">(SUM(C19:N19)-O19-P19)/10</f>
         <v>7.3547</v>
       </c>
+      <c r="S19" s="0" t="n">
+        <v>52500</v>
+      </c>
+      <c r="T19" s="0" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="U19" s="0" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="V19" s="0" t="n">
+        <v>66.8</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="n">
@@ -27362,6 +27662,18 @@
       <c r="Q20" s="0" t="n">
         <f aca="false">(SUM(C20:N20)-O20-P20)/10</f>
         <v>9.6</v>
+      </c>
+      <c r="S20" s="0" t="n">
+        <v>60000</v>
+      </c>
+      <c r="T20" s="0" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="U20" s="0" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="V20" s="0" t="n">
+        <v>86.7</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28855,7 +29167,7 @@
   <dimension ref="A1:V69"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S2" activeCellId="0" sqref="S2"/>
+      <selection pane="topLeft" activeCell="S11" activeCellId="1" sqref="S2:V2 S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -29423,6 +29735,18 @@
       <c r="Q12" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="S12" s="0" t="n">
+        <v>7500</v>
+      </c>
+      <c r="T12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" s="0" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V12" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="n">
@@ -29476,6 +29800,18 @@
         <f aca="false">(SUM(C13:N13)-O13-P13)/10</f>
         <v>0.036</v>
       </c>
+      <c r="S13" s="0" t="n">
+        <v>15000</v>
+      </c>
+      <c r="T13" s="0" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="U13" s="0" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="V13" s="0" t="n">
+        <v>5.4</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="n">
@@ -29529,6 +29865,18 @@
         <f aca="false">(SUM(C14:N14)-O14-P14)/10</f>
         <v>0.145</v>
       </c>
+      <c r="S14" s="0" t="n">
+        <v>22500</v>
+      </c>
+      <c r="T14" s="0" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="U14" s="0" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="V14" s="0" t="n">
+        <v>12.1</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="n">
@@ -29582,6 +29930,18 @@
         <f aca="false">(SUM(C15:N15)-O15-P15)/10</f>
         <v>0.3256</v>
       </c>
+      <c r="S15" s="0" t="n">
+        <v>30000</v>
+      </c>
+      <c r="T15" s="0" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="U15" s="0" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="V15" s="0" t="n">
+        <v>21.6</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="n">
@@ -29635,6 +29995,18 @@
         <f aca="false">(SUM(C16:N16)-O16-P16)/10</f>
         <v>0.5784</v>
       </c>
+      <c r="S16" s="0" t="n">
+        <v>37500</v>
+      </c>
+      <c r="T16" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="U16" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="V16" s="0" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="n">
@@ -29688,6 +30060,18 @@
         <f aca="false">(SUM(C17:N17)-O17-P17)/10</f>
         <v>0.9085</v>
       </c>
+      <c r="S17" s="0" t="n">
+        <v>45000</v>
+      </c>
+      <c r="T17" s="0" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="U17" s="0" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="V17" s="0" t="n">
+        <v>48.5</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="n">
@@ -29741,6 +30125,18 @@
         <f aca="false">(SUM(C18:N18)-O18-P18)/10</f>
         <v>1.3116</v>
       </c>
+      <c r="S18" s="0" t="n">
+        <v>52500</v>
+      </c>
+      <c r="T18" s="0" t="n">
+        <v>66.9</v>
+      </c>
+      <c r="U18" s="0" t="n">
+        <v>66.9</v>
+      </c>
+      <c r="V18" s="0" t="n">
+        <v>66.9</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="n">
@@ -29793,6 +30189,18 @@
       <c r="Q19" s="0" t="n">
         <f aca="false">(SUM(C19:N19)-O19-P19)/10</f>
         <v>1.7768</v>
+      </c>
+      <c r="S19" s="0" t="n">
+        <v>60000</v>
+      </c>
+      <c r="T19" s="0" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="U19" s="0" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="V19" s="0" t="n">
+        <v>86.7</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31307,7 +31715,7 @@
   <dimension ref="A1:V67"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S19" activeCellId="0" sqref="S19"/>
+      <selection pane="topLeft" activeCell="S19" activeCellId="1" sqref="S2:V2 S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -33735,8 +34143,8 @@
   </sheetPr>
   <dimension ref="A1:V73"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S47" activeCellId="0" sqref="S47"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S47" activeCellId="1" sqref="S2:V2 S47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/cpp/dynamic_programming/data.xlsx
+++ b/cpp/dynamic_programming/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zicol\Desktop\Dissertation\cpp\dynamic_programming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE17382-7166-4F7E-906C-B634A439A572}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA454B88-FCC7-4D8F-BCA5-ADC441377FEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10980" yWindow="3480" windowWidth="13350" windowHeight="11385" tabRatio="500" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Constants" sheetId="1" r:id="rId1"/>
@@ -3643,7 +3643,7 @@
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:rPr>
-              <a:t>Total Memory Usage (B) Comparison</a:t>
+              <a:t>Total Memory Usage</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3666,15 +3666,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>LISS!$O$42</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Recursive</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Recursive (B)</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28440" cap="rnd">
@@ -3691,6 +3683,11 @@
               <a:solidFill>
                 <a:srgbClr val="ED7D31"/>
               </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
             </c:spPr>
           </c:marker>
           <c:dLbls>
@@ -3802,15 +3799,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>LISS!$O$29</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Iterative</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Iterative (B)</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28440" cap="rnd">
@@ -3827,6 +3816,11 @@
               <a:solidFill>
                 <a:srgbClr val="4472C4"/>
               </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
             </c:spPr>
           </c:marker>
           <c:dLbls>
@@ -3954,6 +3948,79 @@
         <c:axId val="14426425"/>
         <c:axId val="58551751"/>
       </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="D9D9D9">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>LISS!$U$30:$U$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1590-46EA-86B9-BA51173E546F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="663321104"/>
+        <c:axId val="663142384"/>
+      </c:lineChart>
       <c:catAx>
         <c:axId val="14426425"/>
         <c:scaling>
@@ -3961,6 +4028,29 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Problem</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> Size</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4012,6 +4102,24 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Bytes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4040,6 +4148,57 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:valAx>
+        <c:axId val="663142384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="3.2000000000000008E-4"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>%</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="663321104"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="663321104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="663142384"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:spPr>
         <a:noFill/>
         <a:ln w="0">
@@ -38547,13 +38706,13 @@
       <xdr:col>23</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:rowOff>31749</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>91195</xdr:colOff>
+      <xdr:colOff>549825</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>41825</xdr:rowOff>
+      <xdr:rowOff>117749</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -42092,15 +42251,15 @@
         <v>0</v>
       </c>
       <c r="T31" s="1">
-        <f t="shared" ref="T31:T37" si="8">AVERAGE(T3:V3)</f>
+        <f t="shared" ref="T31:T36" si="8">AVERAGE(T3:V3)</f>
         <v>14.9</v>
       </c>
       <c r="U31" s="1">
-        <f t="shared" ref="U31:U37" si="9">R31+S31+T31</f>
+        <f t="shared" ref="U31:U36" si="9">R31+S31+T31</f>
         <v>14.9</v>
       </c>
       <c r="V31" s="1">
-        <f t="shared" ref="V31:V37" si="10">W3</f>
+        <f t="shared" ref="V31:V36" si="10">W3</f>
         <v>14.9</v>
       </c>
       <c r="W31" s="4">
@@ -42815,7 +42974,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AC75"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:N10"/>
     </sheetView>
   </sheetViews>
@@ -45002,8 +45161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AC69"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="10" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29:L68"/>
+    <sheetView topLeftCell="H2" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="10" workbookViewId="0">
+      <selection activeCell="X33" sqref="X33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.5" defaultRowHeight="14.25"/>
@@ -47613,7 +47772,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AC69"/>
   <sheetViews>
-    <sheetView topLeftCell="J11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="Q11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="I29" sqref="I29:L69"/>
     </sheetView>
   </sheetViews>
@@ -50226,7 +50385,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:W75"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="L78" sqref="I29:L78"/>
     </sheetView>
   </sheetViews>
@@ -52469,7 +52628,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:W81"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="V1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="N11" sqref="B2:N11"/>
     </sheetView>
   </sheetViews>
@@ -55744,7 +55903,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:W74"/>
   <sheetViews>
-    <sheetView topLeftCell="AC1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AQ32" sqref="AQ32"/>
     </sheetView>
   </sheetViews>
@@ -58722,7 +58881,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:W74"/>
   <sheetViews>
-    <sheetView topLeftCell="Z2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AT63" sqref="AT63"/>
     </sheetView>
   </sheetViews>
@@ -61676,7 +61835,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:W69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="N10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>

--- a/cpp/dynamic_programming/data.xlsx
+++ b/cpp/dynamic_programming/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zicol\Desktop\Dissertation\cpp\dynamic_programming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA454B88-FCC7-4D8F-BCA5-ADC441377FEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2160235B-B4AB-4DB9-B65F-35C6BB7F3483}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10620" yWindow="2970" windowWidth="16770" windowHeight="11385" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Constants" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="19">
   <si>
     <t>System Usable Memory</t>
   </si>
@@ -364,66 +364,48 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>MCSS!$B$16:$B$23</c:f>
+              <c:f>MCSS!$B$16:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>7500</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15000</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22500</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30000</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>37500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>45000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>52500</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>60000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>MCSS!$Q$3:$Q$10</c:f>
+              <c:f>MCSS!$Q$3:$Q$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.16221000000000002</c:v>
+                  <c:v>1.4230000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.62084000000000006</c:v>
+                  <c:v>4.8509999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3797200000000003</c:v>
+                  <c:v>9.9760000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.4428200000000002</c:v>
+                  <c:v>0.17500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.8479899999999994</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.4926300000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.4807100000000002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9.7394400000000001</c:v>
+                  <c:v>0.26944999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -506,48 +488,48 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>MCSS!$B$16:$B$23</c:f>
+              <c:f>MCSS!$B$16:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>7500</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15000</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22500</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30000</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>37500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>45000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>52500</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>60000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>MCSS!$Q$16:$Q$17</c:f>
+              <c:f>MCSS!$Q$16:$Q$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>659.77279999999996</c:v>
+                  <c:v>8.1583000000000006</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4970.4399000000003</c:v>
+                  <c:v>72.313799999999986</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>222.45959999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>512.49369999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -898,7 +880,7 @@
                   <c:v>571</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>506</c:v>
+                  <c:v>571</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>506</c:v>
@@ -1034,7 +1016,7 @@
                   <c:v>571</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>506</c:v>
+                  <c:v>571</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>506</c:v>
@@ -1881,25 +1863,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>7496</c:v>
+                  <c:v>4392</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3848</c:v>
+                  <c:v>4392</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4360</c:v>
+                  <c:v>4392</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3848</c:v>
+                  <c:v>3088</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3848</c:v>
+                  <c:v>3088</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>3088</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3104</c:v>
+                  <c:v>3088</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2017,22 +1999,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>7496</c:v>
+                  <c:v>4392</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3848</c:v>
+                  <c:v>4392</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4360</c:v>
+                  <c:v>4392</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3848</c:v>
+                  <c:v>2896</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3848</c:v>
+                  <c:v>2896</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3080</c:v>
+                  <c:v>2896</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2896</c:v>
@@ -2368,22 +2350,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>146456</c:v>
+                  <c:v>143352</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>206744</c:v>
+                  <c:v>207353</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>271256</c:v>
+                  <c:v>271288</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>334744</c:v>
+                  <c:v>333792</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>398744</c:v>
+                  <c:v>397792</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>461976</c:v>
+                  <c:v>461792</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>525792</c:v>
@@ -3068,25 +3050,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>146456</c:v>
+                  <c:v>143352</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>206744</c:v>
+                  <c:v>207353</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>271256</c:v>
+                  <c:v>271288</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>334744</c:v>
+                  <c:v>333984</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>398744</c:v>
+                  <c:v>397984</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>461984</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>526000</c:v>
+                  <c:v>525984</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3765,25 +3747,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>146456</c:v>
+                  <c:v>143352</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>206744</c:v>
+                  <c:v>207353</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>271256</c:v>
+                  <c:v>271288</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>334744</c:v>
+                  <c:v>333984</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>398744</c:v>
+                  <c:v>397984</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>461984</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>526000</c:v>
+                  <c:v>525984</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3898,22 +3880,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>146456</c:v>
+                  <c:v>143352</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>206744</c:v>
+                  <c:v>207353</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>271256</c:v>
+                  <c:v>271288</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>334744</c:v>
+                  <c:v>333792</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>398744</c:v>
+                  <c:v>397792</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>461976</c:v>
+                  <c:v>461792</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>525792</c:v>
@@ -4194,6 +4176,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="663142384"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -4918,25 +4901,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.71399999999999997</c:v>
+                  <c:v>0.14188000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.8325000000000005</c:v>
+                  <c:v>0.54022999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.359900000000005</c:v>
+                  <c:v>1.1957100000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31.909499999999998</c:v>
+                  <c:v>2.11991</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>54.511699999999998</c:v>
+                  <c:v>3.3372499999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>83.685900000000004</c:v>
+                  <c:v>4.7405299999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>118.3801</c:v>
+                  <c:v>6.4507400000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5441,7 +5424,7 @@
                   <c:v>571</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>506</c:v>
+                  <c:v>571</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>506</c:v>
@@ -6578,28 +6561,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>150535</c:v>
+                  <c:v>32631</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>120542</c:v>
+                  <c:v>64631</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>360566</c:v>
+                  <c:v>96631</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>480630</c:v>
+                  <c:v>128631</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>750534</c:v>
+                  <c:v>160630</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>360542</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>840566</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>960630</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6938,25 +6921,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>590392</c:v>
+                  <c:v>638936</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1131912</c:v>
+                  <c:v>1279768</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1597592</c:v>
+                  <c:v>1907608</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2411352</c:v>
+                  <c:v>2508408</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2739112</c:v>
+                  <c:v>3194888</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3603832</c:v>
+                  <c:v>3780456</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3381352</c:v>
+                  <c:v>4425128</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8125,25 +8108,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>256825272</c:v>
+                  <c:v>256873816</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1025526808</c:v>
+                  <c:v>1025674664</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2306152488</c:v>
+                  <c:v>2306462504</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4099126248</c:v>
+                  <c:v>4099223304</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6403614008</c:v>
+                  <c:v>6404069784</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9220638728</c:v>
+                  <c:v>9220815352</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12548576248</c:v>
+                  <c:v>12549620024</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8830,25 +8813,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>256825272</c:v>
+                  <c:v>256873816</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1025526808</c:v>
+                  <c:v>1025674664</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2306152488</c:v>
+                  <c:v>2306462504</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4099126248</c:v>
+                  <c:v>4099223304</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6403614008</c:v>
+                  <c:v>6404069784</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9220638728</c:v>
+                  <c:v>9220815352</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12548576248</c:v>
+                  <c:v>12549620024</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9823,28 +9806,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>10000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20000</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30000</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40000</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>70000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>80000</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9965,28 +9942,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>10000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20000</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30000</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40000</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>70000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>80000</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9998,28 +9969,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.18058000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2.55376</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>11.922130000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>30.856219999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>68.050730000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>120.02141000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10388,10 +10353,10 @@
                   <c:v>960404</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1120404</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1280404</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10530,10 +10495,10 @@
                   <c:v>960404</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1120404</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1280404</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10893,10 +10858,10 @@
                   <c:v>14401753812</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19602033812</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>25602313812</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11035,10 +11000,10 @@
                   <c:v>14401753812</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19602033812</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>25602313812</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11398,10 +11363,10 @@
                   <c:v>2496</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2496</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2496</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11540,10 +11505,10 @@
                   <c:v>2496</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2496</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2496</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11897,10 +11862,10 @@
                   <c:v>14402716712</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19603156712</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>25603596712</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12744,28 +12709,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>225224409</c:v>
+                  <c:v>16194609</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>900734506</c:v>
+                  <c:v>64314609</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2025704434</c:v>
+                  <c:v>144434609</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3601874610</c:v>
+                  <c:v>256554609</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5625824410</c:v>
+                  <c:v>400674610</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8102054506</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11026544434</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14403674610</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13119,10 +13084,10 @@
                   <c:v>14402716712</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19603156712</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>25603596712</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13834,7 +13799,7 @@
                   <c:v>14402716712</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19603156712</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13970,7 +13935,7 @@
                   <c:v>14402716712</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19603156712</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14974,28 +14939,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>150535</c:v>
+                  <c:v>32631</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>120542</c:v>
+                  <c:v>64631</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>360566</c:v>
+                  <c:v>96631</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>480630</c:v>
+                  <c:v>128631</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>750534</c:v>
+                  <c:v>160630</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>360542</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>840566</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>960630</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19085,7 +19050,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>10320</c:v>
+                  <c:v>4776</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3136</c:v>
@@ -19094,19 +19059,19 @@
                   <c:v>3136</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3136</c:v>
+                  <c:v>10816</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>3136</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3136</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3136</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3136</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24754,28 +24719,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.16221000000000002</c:v>
+                  <c:v>1.4230000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.62084000000000006</c:v>
+                  <c:v>4.8509999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3797200000000003</c:v>
+                  <c:v>9.9760000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.4428200000000002</c:v>
+                  <c:v>0.17500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.8479899999999994</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.4926300000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.4807100000000002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9.7394400000000001</c:v>
+                  <c:v>0.26944999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25395,28 +25351,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>225385264</c:v>
+                  <c:v>16232016</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>900858184</c:v>
+                  <c:v>64382376</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2026068136</c:v>
+                  <c:v>144534376</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3602358376</c:v>
+                  <c:v>256694056</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5626578080</c:v>
+                  <c:v>400838376</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8102418184</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11027388136</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14404638376</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -31499,28 +31455,28 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="8"/>
                       <c:pt idx="0">
-                        <c:v>225385264</c:v>
+                        <c:v>16232016</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>900858184</c:v>
+                        <c:v>64382376</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>2026068136</c:v>
+                        <c:v>144534376</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>3602358376</c:v>
+                        <c:v>256694056</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>5626578080</c:v>
+                        <c:v>400838376</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>8102418184</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>11027388136</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>14404638376</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -42972,10 +42928,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AC75"/>
+  <dimension ref="A1:AC57"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:N10"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.5" defaultRowHeight="14.25"/>
@@ -42996,43 +42952,43 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2">
         <v>2</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2">
         <v>3</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2">
         <v>4</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2">
         <v>5</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2">
         <v>6</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2">
         <v>7</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2">
         <v>8</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2">
         <v>9</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2">
         <v>10</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2">
         <v>11</v>
       </c>
-      <c r="N2" s="1">
+      <c r="N2">
         <v>12</v>
       </c>
       <c r="O2" s="1" t="s">
@@ -43061,56 +43017,56 @@
       </c>
     </row>
     <row r="3" spans="1:23">
-      <c r="B3" s="1">
-        <v>7500</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.1704</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.16769999999999999</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.16270000000000001</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0.16320000000000001</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0.16919999999999999</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0.1646</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0.16550000000000001</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0.15820000000000001</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0.15620000000000001</v>
-      </c>
-      <c r="L3" s="1">
-        <v>0.1565</v>
-      </c>
-      <c r="M3" s="1">
-        <v>0.1583</v>
-      </c>
-      <c r="N3" s="1">
-        <v>0.15559999999999999</v>
+      <c r="B3">
+        <v>2000</v>
+      </c>
+      <c r="C3">
+        <v>1.38E-2</v>
+      </c>
+      <c r="D3">
+        <v>1.5100000000000001E-2</v>
+      </c>
+      <c r="E3">
+        <v>1.67E-2</v>
+      </c>
+      <c r="F3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G3">
+        <v>1.5699999999999999E-2</v>
+      </c>
+      <c r="H3">
+        <v>1.8499999999999999E-2</v>
+      </c>
+      <c r="I3">
+        <v>1.09E-2</v>
+      </c>
+      <c r="J3">
+        <v>1.11E-2</v>
+      </c>
+      <c r="K3">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="L3">
+        <v>1.4200000000000001E-2</v>
+      </c>
+      <c r="M3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="N3">
+        <v>1.67E-2</v>
       </c>
       <c r="O3" s="1">
         <f t="shared" ref="O3:O10" si="0">MIN(C3:N3)</f>
-        <v>0.15559999999999999</v>
+        <v>1.09E-2</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" ref="P3:P10" si="1">MAX(C3:N3)</f>
-        <v>0.1704</v>
+        <v>1.8499999999999999E-2</v>
       </c>
       <c r="Q3" s="1">
         <f t="shared" ref="Q3:Q10" si="2">(SUM(C3:N3)-O3-P3)/10</f>
-        <v>0.16221000000000002</v>
+        <v>1.4230000000000003E-2</v>
       </c>
       <c r="S3" s="1">
         <v>7500</v>
@@ -43130,56 +43086,56 @@
       </c>
     </row>
     <row r="4" spans="1:23">
-      <c r="B4" s="1">
-        <v>15000</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.61080000000000001</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.62819999999999998</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.62350000000000005</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0.63029999999999997</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0.61470000000000002</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0.621</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0.62839999999999996</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0.63149999999999995</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0.62260000000000004</v>
-      </c>
-      <c r="L4" s="1">
-        <v>0.61299999999999999</v>
-      </c>
-      <c r="M4" s="1">
-        <v>0.61399999999999999</v>
-      </c>
-      <c r="N4" s="1">
-        <v>0.61270000000000002</v>
+      <c r="B4">
+        <v>4000</v>
+      </c>
+      <c r="C4">
+        <v>4.4499999999999998E-2</v>
+      </c>
+      <c r="D4">
+        <v>5.1299999999999998E-2</v>
+      </c>
+      <c r="E4">
+        <v>4.8599999999999997E-2</v>
+      </c>
+      <c r="F4">
+        <v>4.9500000000000002E-2</v>
+      </c>
+      <c r="G4">
+        <v>4.4299999999999999E-2</v>
+      </c>
+      <c r="H4">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="I4">
+        <v>5.1299999999999998E-2</v>
+      </c>
+      <c r="J4">
+        <v>4.4400000000000002E-2</v>
+      </c>
+      <c r="K4">
+        <v>5.3400000000000003E-2</v>
+      </c>
+      <c r="L4">
+        <v>5.0599999999999999E-2</v>
+      </c>
+      <c r="M4">
+        <v>4.9299999999999997E-2</v>
+      </c>
+      <c r="N4">
+        <v>4.4600000000000001E-2</v>
       </c>
       <c r="O4" s="1">
         <f t="shared" si="0"/>
-        <v>0.61080000000000001</v>
+        <v>4.4299999999999999E-2</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="1"/>
-        <v>0.63149999999999995</v>
+        <v>5.3400000000000003E-2</v>
       </c>
       <c r="Q4" s="1">
         <f t="shared" si="2"/>
-        <v>0.62084000000000006</v>
+        <v>4.8509999999999998E-2</v>
       </c>
       <c r="S4" s="1">
         <v>15000</v>
@@ -43199,56 +43155,56 @@
       </c>
     </row>
     <row r="5" spans="1:23">
-      <c r="B5" s="1">
-        <v>22500</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1.3741000000000001</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1.3843000000000001</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1.3763000000000001</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1.3912</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1.3816999999999999</v>
-      </c>
-      <c r="H5" s="1">
-        <v>1.3893</v>
-      </c>
-      <c r="I5" s="1">
-        <v>1.3757999999999999</v>
-      </c>
-      <c r="J5" s="1">
-        <v>1.3645</v>
-      </c>
-      <c r="K5" s="1">
-        <v>1.3855</v>
-      </c>
-      <c r="L5" s="1">
-        <v>1.3798999999999999</v>
-      </c>
-      <c r="M5" s="1">
-        <v>1.3688</v>
-      </c>
-      <c r="N5" s="1">
-        <v>1.3815</v>
+      <c r="B5">
+        <v>6000</v>
+      </c>
+      <c r="C5">
+        <v>0.1056</v>
+      </c>
+      <c r="D5">
+        <v>9.8100000000000007E-2</v>
+      </c>
+      <c r="E5">
+        <v>9.8599999999999993E-2</v>
+      </c>
+      <c r="F5">
+        <v>9.8400000000000001E-2</v>
+      </c>
+      <c r="G5">
+        <v>9.8500000000000004E-2</v>
+      </c>
+      <c r="H5">
+        <v>0.10440000000000001</v>
+      </c>
+      <c r="I5">
+        <v>9.8500000000000004E-2</v>
+      </c>
+      <c r="J5">
+        <v>9.8400000000000001E-2</v>
+      </c>
+      <c r="K5">
+        <v>9.8299999999999998E-2</v>
+      </c>
+      <c r="L5">
+        <v>9.8500000000000004E-2</v>
+      </c>
+      <c r="M5">
+        <v>9.8400000000000001E-2</v>
+      </c>
+      <c r="N5">
+        <v>0.1072</v>
       </c>
       <c r="O5" s="1">
         <f t="shared" si="0"/>
-        <v>1.3645</v>
+        <v>9.8100000000000007E-2</v>
       </c>
       <c r="P5" s="1">
         <f t="shared" si="1"/>
-        <v>1.3912</v>
+        <v>0.1072</v>
       </c>
       <c r="Q5" s="1">
         <f t="shared" si="2"/>
-        <v>1.3797200000000003</v>
+        <v>9.9760000000000001E-2</v>
       </c>
       <c r="S5" s="1">
         <v>22500</v>
@@ -43268,56 +43224,56 @@
       </c>
     </row>
     <row r="6" spans="1:23">
-      <c r="B6" s="1">
-        <v>30000</v>
-      </c>
-      <c r="C6" s="1">
-        <v>2.4474999999999998</v>
-      </c>
-      <c r="D6" s="1">
-        <v>2.4424000000000001</v>
-      </c>
-      <c r="E6" s="1">
-        <v>2.4257</v>
-      </c>
-      <c r="F6" s="1">
-        <v>2.4523000000000001</v>
-      </c>
-      <c r="G6" s="1">
-        <v>2.4415</v>
-      </c>
-      <c r="H6" s="1">
-        <v>2.4443999999999999</v>
-      </c>
-      <c r="I6" s="1">
-        <v>2.4394</v>
-      </c>
-      <c r="J6" s="1">
-        <v>2.4432</v>
-      </c>
-      <c r="K6" s="1">
-        <v>2.4396</v>
-      </c>
-      <c r="L6" s="1">
-        <v>2.4445999999999999</v>
-      </c>
-      <c r="M6" s="1">
-        <v>2.4443999999999999</v>
-      </c>
-      <c r="N6" s="1">
-        <v>2.4411999999999998</v>
+      <c r="B6">
+        <v>8000</v>
+      </c>
+      <c r="C6">
+        <v>0.17280000000000001</v>
+      </c>
+      <c r="D6">
+        <v>0.18149999999999999</v>
+      </c>
+      <c r="E6">
+        <v>0.17280000000000001</v>
+      </c>
+      <c r="F6">
+        <v>0.1769</v>
+      </c>
+      <c r="G6">
+        <v>0.18060000000000001</v>
+      </c>
+      <c r="H6">
+        <v>0.17330000000000001</v>
+      </c>
+      <c r="I6">
+        <v>0.17780000000000001</v>
+      </c>
+      <c r="J6">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="K6">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="L6">
+        <v>0.17280000000000001</v>
+      </c>
+      <c r="M6">
+        <v>0.17280000000000001</v>
+      </c>
+      <c r="N6">
+        <v>0.17299999999999999</v>
       </c>
       <c r="O6" s="1">
         <f t="shared" si="0"/>
-        <v>2.4257</v>
+        <v>0.17280000000000001</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="1"/>
-        <v>2.4523000000000001</v>
+        <v>0.18149999999999999</v>
       </c>
       <c r="Q6" s="1">
         <f t="shared" si="2"/>
-        <v>2.4428200000000002</v>
+        <v>0.17500000000000002</v>
       </c>
       <c r="S6" s="1">
         <v>30000</v>
@@ -43337,56 +43293,56 @@
       </c>
     </row>
     <row r="7" spans="1:23">
-      <c r="B7" s="1">
-        <v>37500</v>
-      </c>
-      <c r="C7" s="1">
-        <v>3.8315999999999999</v>
-      </c>
-      <c r="D7" s="1">
-        <v>3.8698000000000001</v>
-      </c>
-      <c r="E7" s="1">
-        <v>3.8599000000000001</v>
-      </c>
-      <c r="F7" s="1">
-        <v>3.9123000000000001</v>
-      </c>
-      <c r="G7" s="1">
-        <v>3.9051999999999998</v>
-      </c>
-      <c r="H7" s="1">
-        <v>3.8087</v>
-      </c>
-      <c r="I7" s="1">
-        <v>3.8149000000000002</v>
-      </c>
-      <c r="J7" s="1">
-        <v>3.835</v>
-      </c>
-      <c r="K7" s="1">
-        <v>3.8115999999999999</v>
-      </c>
-      <c r="L7" s="1">
-        <v>3.8479999999999999</v>
-      </c>
-      <c r="M7" s="1">
-        <v>3.8702999999999999</v>
-      </c>
-      <c r="N7" s="1">
-        <v>3.8336000000000001</v>
+      <c r="B7">
+        <v>10000</v>
+      </c>
+      <c r="C7">
+        <v>0.26750000000000002</v>
+      </c>
+      <c r="D7">
+        <v>0.27289999999999998</v>
+      </c>
+      <c r="E7">
+        <v>0.2722</v>
+      </c>
+      <c r="F7">
+        <v>0.27279999999999999</v>
+      </c>
+      <c r="G7">
+        <v>0.26790000000000003</v>
+      </c>
+      <c r="H7">
+        <v>0.2676</v>
+      </c>
+      <c r="I7">
+        <v>0.26790000000000003</v>
+      </c>
+      <c r="J7">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="K7">
+        <v>0.26819999999999999</v>
+      </c>
+      <c r="L7">
+        <v>0.26850000000000002</v>
+      </c>
+      <c r="M7">
+        <v>0.26819999999999999</v>
+      </c>
+      <c r="N7">
+        <v>0.26829999999999998</v>
       </c>
       <c r="O7" s="1">
         <f t="shared" si="0"/>
-        <v>3.8087</v>
+        <v>0.26750000000000002</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="1"/>
-        <v>3.9123000000000001</v>
+        <v>0.27400000000000002</v>
       </c>
       <c r="Q7" s="1">
         <f t="shared" si="2"/>
-        <v>3.8479899999999994</v>
+        <v>0.26944999999999997</v>
       </c>
       <c r="S7" s="1">
         <v>37500</v>
@@ -43406,57 +43362,6 @@
       </c>
     </row>
     <row r="8" spans="1:23">
-      <c r="B8" s="1">
-        <v>45000</v>
-      </c>
-      <c r="C8" s="1">
-        <v>5.5301</v>
-      </c>
-      <c r="D8" s="1">
-        <v>5.5263999999999998</v>
-      </c>
-      <c r="E8" s="1">
-        <v>5.4368999999999996</v>
-      </c>
-      <c r="F8" s="1">
-        <v>5.4981</v>
-      </c>
-      <c r="G8" s="1">
-        <v>5.5614999999999997</v>
-      </c>
-      <c r="H8" s="1">
-        <v>5.5479000000000003</v>
-      </c>
-      <c r="I8" s="1">
-        <v>5.4855</v>
-      </c>
-      <c r="J8" s="1">
-        <v>5.4603999999999999</v>
-      </c>
-      <c r="K8" s="1">
-        <v>5.5012999999999996</v>
-      </c>
-      <c r="L8" s="1">
-        <v>5.4740000000000002</v>
-      </c>
-      <c r="M8" s="1">
-        <v>5.4657</v>
-      </c>
-      <c r="N8" s="1">
-        <v>5.4344999999999999</v>
-      </c>
-      <c r="O8" s="1">
-        <f t="shared" si="0"/>
-        <v>5.4344999999999999</v>
-      </c>
-      <c r="P8" s="1">
-        <f t="shared" si="1"/>
-        <v>5.5614999999999997</v>
-      </c>
-      <c r="Q8" s="1">
-        <f t="shared" si="2"/>
-        <v>5.4926300000000001</v>
-      </c>
       <c r="S8" s="1">
         <v>45000</v>
       </c>
@@ -43475,57 +43380,6 @@
       </c>
     </row>
     <row r="9" spans="1:23">
-      <c r="B9" s="1">
-        <v>52500</v>
-      </c>
-      <c r="C9" s="1">
-        <v>7.5094000000000003</v>
-      </c>
-      <c r="D9" s="1">
-        <v>7.5019</v>
-      </c>
-      <c r="E9" s="1">
-        <v>7.4488000000000003</v>
-      </c>
-      <c r="F9" s="1">
-        <v>7.5303000000000004</v>
-      </c>
-      <c r="G9" s="1">
-        <v>7.4425999999999997</v>
-      </c>
-      <c r="H9" s="1">
-        <v>7.4149000000000003</v>
-      </c>
-      <c r="I9" s="1">
-        <v>7.4885999999999999</v>
-      </c>
-      <c r="J9" s="1">
-        <v>7.4272999999999998</v>
-      </c>
-      <c r="K9" s="1">
-        <v>7.5308000000000002</v>
-      </c>
-      <c r="L9" s="1">
-        <v>7.4762000000000004</v>
-      </c>
-      <c r="M9" s="1">
-        <v>7.4577999999999998</v>
-      </c>
-      <c r="N9" s="1">
-        <v>7.5242000000000004</v>
-      </c>
-      <c r="O9" s="1">
-        <f t="shared" si="0"/>
-        <v>7.4149000000000003</v>
-      </c>
-      <c r="P9" s="1">
-        <f t="shared" si="1"/>
-        <v>7.5308000000000002</v>
-      </c>
-      <c r="Q9" s="1">
-        <f t="shared" si="2"/>
-        <v>7.4807100000000002</v>
-      </c>
       <c r="S9" s="1">
         <v>52500</v>
       </c>
@@ -43544,57 +43398,6 @@
       </c>
     </row>
     <row r="10" spans="1:23">
-      <c r="B10" s="1">
-        <v>60000</v>
-      </c>
-      <c r="C10" s="1">
-        <v>9.7782</v>
-      </c>
-      <c r="D10" s="1">
-        <v>9.7713000000000001</v>
-      </c>
-      <c r="E10" s="1">
-        <v>9.7379999999999995</v>
-      </c>
-      <c r="F10" s="1">
-        <v>9.7597000000000005</v>
-      </c>
-      <c r="G10" s="1">
-        <v>9.7317999999999998</v>
-      </c>
-      <c r="H10" s="1">
-        <v>9.7411999999999992</v>
-      </c>
-      <c r="I10" s="1">
-        <v>9.7885000000000009</v>
-      </c>
-      <c r="J10" s="1">
-        <v>9.6850000000000005</v>
-      </c>
-      <c r="K10" s="1">
-        <v>9.7387999999999995</v>
-      </c>
-      <c r="L10" s="1">
-        <v>9.7203999999999997</v>
-      </c>
-      <c r="M10" s="1">
-        <v>9.73</v>
-      </c>
-      <c r="N10" s="1">
-        <v>9.6778999999999993</v>
-      </c>
-      <c r="O10" s="1">
-        <f t="shared" si="0"/>
-        <v>9.6778999999999993</v>
-      </c>
-      <c r="P10" s="1">
-        <f t="shared" si="1"/>
-        <v>9.7885000000000009</v>
-      </c>
-      <c r="Q10" s="1">
-        <f t="shared" si="2"/>
-        <v>9.7394400000000001</v>
-      </c>
       <c r="S10" s="1">
         <v>60000</v>
       </c>
@@ -43681,56 +43484,56 @@
       </c>
     </row>
     <row r="16" spans="1:23">
-      <c r="B16" s="1">
-        <v>7500</v>
+      <c r="B16">
+        <v>2000</v>
       </c>
       <c r="C16" s="1">
-        <v>659.69</v>
+        <v>8.15</v>
       </c>
       <c r="D16" s="1">
-        <v>660.89800000000002</v>
+        <v>8.1180000000000003</v>
       </c>
       <c r="E16" s="1">
-        <v>660.96199999999999</v>
+        <v>8.1229999999999993</v>
       </c>
       <c r="F16" s="1">
-        <v>658.88</v>
+        <v>8.1289999999999996</v>
       </c>
       <c r="G16" s="1">
-        <v>668.36800000000005</v>
+        <v>8.1509999999999998</v>
       </c>
       <c r="H16" s="1">
-        <v>658.57600000000002</v>
+        <v>8.1660000000000004</v>
       </c>
       <c r="I16" s="1">
-        <v>658.94500000000005</v>
+        <v>8.1709999999999994</v>
       </c>
       <c r="J16" s="1">
-        <v>659.77300000000002</v>
+        <v>8.1869999999999994</v>
       </c>
       <c r="K16" s="1">
-        <v>658.76199999999994</v>
+        <v>8.1869999999999994</v>
       </c>
       <c r="L16" s="1">
-        <v>661.18899999999996</v>
+        <v>8.2140000000000004</v>
       </c>
       <c r="M16" s="1">
-        <v>658.13699999999994</v>
+        <v>8.1539999999999999</v>
       </c>
       <c r="N16" s="1">
-        <v>660.053</v>
+        <v>8.1649999999999991</v>
       </c>
       <c r="O16" s="1">
         <f>MIN(C16:N16)</f>
-        <v>658.13699999999994</v>
+        <v>8.1180000000000003</v>
       </c>
       <c r="P16" s="1">
         <f>MAX(C16:N16)</f>
-        <v>668.36800000000005</v>
+        <v>8.2140000000000004</v>
       </c>
       <c r="Q16" s="1">
         <f>(SUM(C16:N16)-O16-P16)/10</f>
-        <v>659.77279999999996</v>
+        <v>8.1583000000000006</v>
       </c>
       <c r="S16" s="1">
         <v>7500</v>
@@ -43750,56 +43553,56 @@
       </c>
     </row>
     <row r="17" spans="1:23">
-      <c r="B17" s="1">
-        <v>15000</v>
+      <c r="B17">
+        <v>4000</v>
       </c>
       <c r="C17" s="1">
-        <v>4962.0429999999997</v>
+        <v>72.418000000000006</v>
       </c>
       <c r="D17" s="1">
-        <v>4959.8630000000003</v>
+        <v>72.852000000000004</v>
       </c>
       <c r="E17" s="1">
-        <v>4963.6409999999996</v>
+        <v>72.287000000000006</v>
       </c>
       <c r="F17" s="1">
-        <v>4969.1689999999999</v>
+        <v>71.738</v>
       </c>
       <c r="G17" s="1">
-        <v>4983.5529999999999</v>
+        <v>71.968000000000004</v>
       </c>
       <c r="H17" s="1">
-        <v>4972.0200000000004</v>
+        <v>71.724000000000004</v>
       </c>
       <c r="I17" s="1">
-        <v>4969.8729999999996</v>
+        <v>72.912000000000006</v>
       </c>
       <c r="J17" s="1">
-        <v>4969.3680000000004</v>
+        <v>71.869</v>
       </c>
       <c r="K17" s="1">
-        <v>4979.6270000000004</v>
+        <v>72.063999999999993</v>
       </c>
       <c r="L17" s="1">
-        <v>5008.8689999999997</v>
+        <v>72.516000000000005</v>
       </c>
       <c r="M17" s="1">
-        <v>4966.7960000000003</v>
+        <v>72.733999999999995</v>
       </c>
       <c r="N17" s="1">
-        <v>4968.3090000000002</v>
+        <v>72.691999999999993</v>
       </c>
       <c r="O17" s="1">
         <f>MIN(C17:N17)</f>
-        <v>4959.8630000000003</v>
+        <v>71.724000000000004</v>
       </c>
       <c r="P17" s="1">
         <f>MAX(C17:N17)</f>
-        <v>5008.8689999999997</v>
+        <v>72.912000000000006</v>
       </c>
       <c r="Q17" s="1">
         <f>(SUM(C17:N17)-O17-P17)/10</f>
-        <v>4970.4399000000003</v>
+        <v>72.313799999999986</v>
       </c>
       <c r="S17" s="1">
         <v>15000</v>
@@ -43819,8 +43622,56 @@
       </c>
     </row>
     <row r="18" spans="1:23">
-      <c r="B18" s="1">
-        <v>22500</v>
+      <c r="B18">
+        <v>6000</v>
+      </c>
+      <c r="C18" s="1">
+        <v>222.84200000000001</v>
+      </c>
+      <c r="D18" s="1">
+        <v>221.893</v>
+      </c>
+      <c r="E18" s="1">
+        <v>221.553</v>
+      </c>
+      <c r="F18" s="1">
+        <v>221.21</v>
+      </c>
+      <c r="G18" s="1">
+        <v>221.82300000000001</v>
+      </c>
+      <c r="H18" s="1">
+        <v>220.65600000000001</v>
+      </c>
+      <c r="I18" s="1">
+        <v>221.471</v>
+      </c>
+      <c r="J18" s="1">
+        <v>223.45099999999999</v>
+      </c>
+      <c r="K18" s="1">
+        <v>223.45099999999999</v>
+      </c>
+      <c r="L18" s="1">
+        <v>223.45099999999999</v>
+      </c>
+      <c r="M18" s="1">
+        <v>223.45099999999999</v>
+      </c>
+      <c r="N18" s="1">
+        <v>223.45099999999999</v>
+      </c>
+      <c r="O18" s="1">
+        <f t="shared" ref="O18:O20" si="5">MIN(C18:N18)</f>
+        <v>220.65600000000001</v>
+      </c>
+      <c r="P18" s="1">
+        <f t="shared" ref="P18:P20" si="6">MAX(C18:N18)</f>
+        <v>223.45099999999999</v>
+      </c>
+      <c r="Q18" s="1">
+        <f t="shared" ref="Q18:Q20" si="7">(SUM(C18:N18)-O18-P18)/10</f>
+        <v>222.45959999999999</v>
       </c>
       <c r="S18" s="1">
         <v>22500</v>
@@ -43840,8 +43691,56 @@
       </c>
     </row>
     <row r="19" spans="1:23">
-      <c r="B19" s="1">
-        <v>30000</v>
+      <c r="B19">
+        <v>8000</v>
+      </c>
+      <c r="C19" s="1">
+        <v>513.60400000000004</v>
+      </c>
+      <c r="D19" s="1">
+        <v>517.86</v>
+      </c>
+      <c r="E19" s="1">
+        <v>507.92200000000003</v>
+      </c>
+      <c r="F19" s="1">
+        <v>509.577</v>
+      </c>
+      <c r="G19" s="1">
+        <v>511.33499999999998</v>
+      </c>
+      <c r="H19" s="1">
+        <v>514.72</v>
+      </c>
+      <c r="I19" s="1">
+        <v>508.15</v>
+      </c>
+      <c r="J19" s="1">
+        <v>509.77499999999998</v>
+      </c>
+      <c r="K19" s="1">
+        <v>506.56400000000002</v>
+      </c>
+      <c r="L19" s="1">
+        <v>521.53599999999994</v>
+      </c>
+      <c r="M19" s="1">
+        <v>518.09699999999998</v>
+      </c>
+      <c r="N19" s="1">
+        <v>513.89700000000005</v>
+      </c>
+      <c r="O19" s="1">
+        <f t="shared" si="5"/>
+        <v>506.56400000000002</v>
+      </c>
+      <c r="P19" s="1">
+        <f t="shared" si="6"/>
+        <v>521.53599999999994</v>
+      </c>
+      <c r="Q19" s="1">
+        <f t="shared" si="7"/>
+        <v>512.49369999999999</v>
       </c>
       <c r="S19" s="1">
         <v>30000</v>
@@ -43861,8 +43760,20 @@
       </c>
     </row>
     <row r="20" spans="1:23">
-      <c r="B20" s="1">
-        <v>37500</v>
+      <c r="B20">
+        <v>10000</v>
+      </c>
+      <c r="O20" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P20" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="S20" s="1">
         <v>37500</v>
@@ -43876,9 +43787,6 @@
       </c>
     </row>
     <row r="21" spans="1:23">
-      <c r="B21" s="1">
-        <v>45000</v>
-      </c>
       <c r="S21" s="1">
         <v>45000</v>
       </c>
@@ -43888,9 +43796,6 @@
       </c>
     </row>
     <row r="22" spans="1:23">
-      <c r="B22" s="1">
-        <v>52500</v>
-      </c>
       <c r="S22" s="1">
         <v>52500</v>
       </c>
@@ -43900,9 +43805,6 @@
       </c>
     </row>
     <row r="23" spans="1:23">
-      <c r="B23" s="1">
-        <v>60000</v>
-      </c>
       <c r="S23" s="1">
         <v>60000</v>
       </c>
@@ -43930,7 +43832,7 @@
         <v>9</v>
       </c>
       <c r="C29" s="1">
-        <v>7500</v>
+        <v>2000</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>7</v>
@@ -43984,22 +43886,22 @@
       </c>
       <c r="Q30" s="1">
         <f>F31</f>
-        <v>225224409</v>
+        <v>16194609</v>
       </c>
       <c r="R30" s="1">
         <f>F32</f>
-        <v>150535</v>
+        <v>32631</v>
       </c>
       <c r="S30" s="1">
         <f>F33</f>
-        <v>10320</v>
+        <v>4776</v>
       </c>
       <c r="T30" s="1">
-        <f t="shared" ref="T30:T37" si="5">Q30+R30+S30</f>
-        <v>225385264</v>
+        <f t="shared" ref="T30:T37" si="8">Q30+R30+S30</f>
+        <v>16232016</v>
       </c>
       <c r="U30" s="1">
-        <f t="shared" ref="U30:U37" si="6">W3</f>
+        <f t="shared" ref="U30:U37" si="9">W3</f>
         <v>1.3999999999999997</v>
       </c>
       <c r="V30" s="4">
@@ -44012,17 +43914,17 @@
         <v>10</v>
       </c>
       <c r="C31" s="1">
-        <v>225224409</v>
+        <v>16194609</v>
       </c>
       <c r="D31" s="1">
-        <v>225224409</v>
+        <v>16194609</v>
       </c>
       <c r="E31" s="1">
-        <v>225224409</v>
+        <v>16194609</v>
       </c>
       <c r="F31" s="1">
         <f>SUM(C31:E31)/3</f>
-        <v>225224409</v>
+        <v>16194609</v>
       </c>
       <c r="M31" s="1">
         <f>SUM(J31:L31)/3</f>
@@ -44033,22 +43935,22 @@
       </c>
       <c r="Q31" s="1">
         <f>F37</f>
-        <v>900734506</v>
+        <v>64314609</v>
       </c>
       <c r="R31" s="1">
         <f>F38</f>
-        <v>120542</v>
+        <v>64631</v>
       </c>
       <c r="S31" s="1">
         <f>F39</f>
         <v>3136</v>
       </c>
       <c r="T31" s="1">
-        <f t="shared" si="5"/>
-        <v>900858184</v>
+        <f t="shared" si="8"/>
+        <v>64382376</v>
       </c>
       <c r="U31" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>5.5999999999999988</v>
       </c>
       <c r="V31" s="4">
@@ -44061,17 +43963,17 @@
         <v>16</v>
       </c>
       <c r="C32" s="1">
-        <v>150535</v>
+        <v>32631</v>
       </c>
       <c r="D32" s="1">
-        <v>150535</v>
+        <v>32631</v>
       </c>
       <c r="E32" s="1">
-        <v>150535</v>
+        <v>32631</v>
       </c>
       <c r="F32" s="1">
         <f>SUM(C32:E32)/3</f>
-        <v>150535</v>
+        <v>32631</v>
       </c>
       <c r="M32" s="1">
         <f>SUM(J32:L32)/3</f>
@@ -44082,22 +43984,22 @@
       </c>
       <c r="Q32" s="1">
         <f>F43</f>
-        <v>2025704434</v>
+        <v>144434609</v>
       </c>
       <c r="R32" s="1">
         <f>F44</f>
-        <v>360566</v>
+        <v>96631</v>
       </c>
       <c r="S32" s="1">
         <f>F45</f>
         <v>3136</v>
       </c>
       <c r="T32" s="1">
-        <f t="shared" si="5"/>
-        <v>2026068136</v>
+        <f t="shared" si="8"/>
+        <v>144534376</v>
       </c>
       <c r="U32" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>12.5</v>
       </c>
       <c r="V32" s="4">
@@ -44110,17 +44012,17 @@
         <v>12</v>
       </c>
       <c r="C33" s="1">
-        <v>10320</v>
+        <v>4776</v>
       </c>
       <c r="D33" s="1">
-        <v>10320</v>
+        <v>4776</v>
       </c>
       <c r="E33" s="1">
-        <v>10320</v>
+        <v>4776</v>
       </c>
       <c r="F33" s="1">
         <f>SUM(C33:E33)/3</f>
-        <v>10320</v>
+        <v>4776</v>
       </c>
       <c r="M33" s="1">
         <f>SUM(J33:L33)/3</f>
@@ -44131,22 +44033,22 @@
       </c>
       <c r="Q33" s="1">
         <f>F49</f>
-        <v>3601874610</v>
+        <v>256554609</v>
       </c>
       <c r="R33" s="1">
         <f>F50</f>
-        <v>480630</v>
+        <v>128631</v>
       </c>
       <c r="S33" s="1">
         <f>F51</f>
-        <v>3136</v>
+        <v>10816</v>
       </c>
       <c r="T33" s="1">
-        <f t="shared" si="5"/>
-        <v>3602358376</v>
+        <f t="shared" si="8"/>
+        <v>256694056</v>
       </c>
       <c r="U33" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>22.2</v>
       </c>
       <c r="V33" s="4">
@@ -44160,22 +44062,22 @@
       </c>
       <c r="Q34" s="1">
         <f>F55</f>
-        <v>5625824410</v>
+        <v>400674610</v>
       </c>
       <c r="R34" s="1">
         <f>F56</f>
-        <v>750534</v>
+        <v>160630</v>
       </c>
       <c r="S34" s="1">
         <f>F57</f>
         <v>3136</v>
       </c>
       <c r="T34" s="1">
-        <f t="shared" si="5"/>
-        <v>5626578080</v>
+        <f t="shared" si="8"/>
+        <v>400838376</v>
       </c>
       <c r="U34" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>35.1</v>
       </c>
       <c r="V34" s="4">
@@ -44188,29 +44090,29 @@
         <v>9</v>
       </c>
       <c r="C35" s="1">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="P35" s="1">
         <v>60000</v>
       </c>
       <c r="Q35" s="1">
         <f>F61</f>
-        <v>8102054506</v>
+        <v>0</v>
       </c>
       <c r="R35" s="1">
         <f>F62</f>
-        <v>360542</v>
+        <v>0</v>
       </c>
       <c r="S35" s="1">
         <f>F63</f>
-        <v>3136</v>
+        <v>0</v>
       </c>
       <c r="T35" s="1">
-        <f t="shared" si="5"/>
-        <v>8102418184</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="U35" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>50.1</v>
       </c>
       <c r="V35" s="4">
@@ -44242,22 +44144,22 @@
       </c>
       <c r="Q36" s="1">
         <f>F67</f>
-        <v>11026544434</v>
+        <v>0</v>
       </c>
       <c r="R36" s="1">
         <f>F68</f>
-        <v>840566</v>
+        <v>0</v>
       </c>
       <c r="S36" s="1">
         <f>F69</f>
-        <v>3136</v>
+        <v>0</v>
       </c>
       <c r="T36" s="1">
-        <f t="shared" si="5"/>
-        <v>11027388136</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="U36" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>69</v>
       </c>
       <c r="V36" s="4">
@@ -44270,17 +44172,17 @@
         <v>10</v>
       </c>
       <c r="C37" s="1">
-        <v>900734506</v>
+        <v>64314609</v>
       </c>
       <c r="D37" s="1">
-        <v>900734506</v>
+        <v>64314609</v>
       </c>
       <c r="E37" s="1">
-        <v>900734506</v>
+        <v>64314609</v>
       </c>
       <c r="F37" s="1">
         <f>SUM(C37:E37)/3</f>
-        <v>900734506</v>
+        <v>64314609</v>
       </c>
       <c r="M37" s="1">
         <f>SUM(J37:L37)/3</f>
@@ -44291,22 +44193,22 @@
       </c>
       <c r="Q37" s="1">
         <f>F73</f>
-        <v>14403674610</v>
+        <v>0</v>
       </c>
       <c r="R37" s="1">
         <f>F74</f>
-        <v>960630</v>
+        <v>0</v>
       </c>
       <c r="S37" s="1">
         <f>F75</f>
-        <v>3136</v>
+        <v>0</v>
       </c>
       <c r="T37" s="1">
-        <f t="shared" si="5"/>
-        <v>14404638376</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="U37" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>89.5</v>
       </c>
       <c r="V37" s="4">
@@ -44319,17 +44221,17 @@
         <v>16</v>
       </c>
       <c r="C38" s="1">
-        <v>120542</v>
+        <v>64631</v>
       </c>
       <c r="D38" s="1">
-        <v>120542</v>
+        <v>64631</v>
       </c>
       <c r="E38" s="1">
-        <v>120542</v>
+        <v>64631</v>
       </c>
       <c r="F38" s="1">
         <f>SUM(C38:E38)/3</f>
-        <v>120542</v>
+        <v>64631</v>
       </c>
       <c r="M38" s="1">
         <f>SUM(J38:L38)/3</f>
@@ -44363,7 +44265,7 @@
         <v>9</v>
       </c>
       <c r="C41" s="1">
-        <v>22500</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="42" spans="2:22">
@@ -44415,17 +44317,17 @@
         <v>10</v>
       </c>
       <c r="C43" s="1">
-        <v>2025704434</v>
+        <v>144434609</v>
       </c>
       <c r="D43" s="1">
-        <v>2025704434</v>
+        <v>144434609</v>
       </c>
       <c r="E43" s="1">
-        <v>2025704434</v>
+        <v>144434609</v>
       </c>
       <c r="F43" s="1">
         <f>SUM(C43:E43)/3</f>
-        <v>2025704434</v>
+        <v>144434609</v>
       </c>
       <c r="M43" s="1">
         <f>SUM(J43:L43)/3</f>
@@ -44447,7 +44349,7 @@
         <v>0</v>
       </c>
       <c r="T43" s="1">
-        <f t="shared" ref="T43:T50" si="7">Q43+R43+S43</f>
+        <f t="shared" ref="T43:T50" si="10">Q43+R43+S43</f>
         <v>0</v>
       </c>
       <c r="U43" s="3">
@@ -44464,17 +44366,17 @@
         <v>16</v>
       </c>
       <c r="C44" s="1">
-        <v>360566</v>
+        <v>96631</v>
       </c>
       <c r="D44" s="1">
-        <v>360566</v>
+        <v>96631</v>
       </c>
       <c r="E44" s="1">
-        <v>360566</v>
+        <v>96631</v>
       </c>
       <c r="F44" s="1">
         <f>SUM(C44:E44)/3</f>
-        <v>360566</v>
+        <v>96631</v>
       </c>
       <c r="M44" s="1">
         <f>SUM(J44:L44)/3</f>
@@ -44496,7 +44398,7 @@
         <v>0</v>
       </c>
       <c r="T44" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U44" s="3">
@@ -44545,7 +44447,7 @@
         <v>0</v>
       </c>
       <c r="T45" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U45" s="3">
@@ -44574,7 +44476,7 @@
         <v>0</v>
       </c>
       <c r="T46" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U46" s="3">
@@ -44591,7 +44493,7 @@
         <v>9</v>
       </c>
       <c r="C47" s="1">
-        <v>30000</v>
+        <v>8000</v>
       </c>
       <c r="P47" s="1">
         <v>50000</v>
@@ -44609,7 +44511,7 @@
         <v>0</v>
       </c>
       <c r="T47" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U47" s="3">
@@ -44656,7 +44558,7 @@
         <v>0</v>
       </c>
       <c r="T48" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U48" s="3"/>
@@ -44667,17 +44569,17 @@
         <v>10</v>
       </c>
       <c r="C49" s="1">
-        <v>3601874610</v>
+        <v>256554609</v>
       </c>
       <c r="D49" s="1">
-        <v>3601874610</v>
+        <v>256554609</v>
       </c>
       <c r="E49" s="1">
-        <v>3601874610</v>
+        <v>256554609</v>
       </c>
       <c r="F49" s="1">
         <f>SUM(C49:E49)/3</f>
-        <v>3601874610</v>
+        <v>256554609</v>
       </c>
       <c r="M49" s="1">
         <f>SUM(J49:L49)/3</f>
@@ -44699,7 +44601,7 @@
         <v>0</v>
       </c>
       <c r="T49" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U49" s="3"/>
@@ -44710,17 +44612,17 @@
         <v>16</v>
       </c>
       <c r="C50" s="1">
-        <v>480630</v>
+        <v>128631</v>
       </c>
       <c r="D50" s="1">
-        <v>480630</v>
+        <v>128631</v>
       </c>
       <c r="E50" s="1">
-        <v>480630</v>
+        <v>128631</v>
       </c>
       <c r="F50" s="1">
         <f>SUM(C50:E50)/3</f>
-        <v>480630</v>
+        <v>128631</v>
       </c>
       <c r="M50" s="1">
         <f>SUM(J50:L50)/3</f>
@@ -44742,7 +44644,7 @@
         <v>0</v>
       </c>
       <c r="T50" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U50" s="3"/>
@@ -44753,17 +44655,17 @@
         <v>12</v>
       </c>
       <c r="C51" s="1">
-        <v>3136</v>
+        <v>10816</v>
       </c>
       <c r="D51" s="1">
-        <v>3136</v>
+        <v>10816</v>
       </c>
       <c r="E51" s="1">
-        <v>3136</v>
+        <v>10816</v>
       </c>
       <c r="F51" s="1">
         <f>SUM(C51:E51)/3</f>
-        <v>3136</v>
+        <v>10816</v>
       </c>
       <c r="M51" s="1">
         <f>SUM(J51:L51)/3</f>
@@ -44775,7 +44677,7 @@
         <v>9</v>
       </c>
       <c r="C53" s="1">
-        <v>37500</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="54" spans="2:22">
@@ -44803,17 +44705,17 @@
         <v>10</v>
       </c>
       <c r="C55" s="1">
-        <v>5625824410</v>
+        <v>400674610</v>
       </c>
       <c r="D55" s="1">
-        <v>5625824410</v>
+        <v>400674610</v>
       </c>
       <c r="E55" s="1">
-        <v>5625824410</v>
+        <v>400674610</v>
       </c>
       <c r="F55" s="1">
         <f>SUM(C55:E55)/3</f>
-        <v>5625824410</v>
+        <v>400674610</v>
       </c>
       <c r="M55" s="1">
         <f>SUM(J55:L55)/3</f>
@@ -44825,17 +44727,17 @@
         <v>16</v>
       </c>
       <c r="C56" s="1">
-        <v>750534</v>
+        <v>160630</v>
       </c>
       <c r="D56" s="1">
-        <v>750534</v>
+        <v>160630</v>
       </c>
       <c r="E56" s="1">
-        <v>750534</v>
+        <v>160630</v>
       </c>
       <c r="F56" s="1">
         <f>SUM(C56:E56)/3</f>
-        <v>750534</v>
+        <v>160630</v>
       </c>
       <c r="M56" s="1">
         <f>SUM(J56:L56)/3</f>
@@ -44861,288 +44763,6 @@
       </c>
       <c r="M57" s="1">
         <f>SUM(J57:L57)/3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="2:22">
-      <c r="B59" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C59" s="1">
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="60" spans="2:22">
-      <c r="B60" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C60" s="1">
-        <v>1</v>
-      </c>
-      <c r="D60" s="1">
-        <v>2</v>
-      </c>
-      <c r="E60" s="1">
-        <v>3</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M60" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="2:22">
-      <c r="B61" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C61" s="1">
-        <v>8102054506</v>
-      </c>
-      <c r="D61" s="1">
-        <v>8102054506</v>
-      </c>
-      <c r="E61" s="1">
-        <v>8102054506</v>
-      </c>
-      <c r="F61" s="1">
-        <f>SUM(C61:E61)/3</f>
-        <v>8102054506</v>
-      </c>
-      <c r="M61" s="1">
-        <f>SUM(J61:L61)/3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="2:22">
-      <c r="B62" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C62" s="1">
-        <v>360542</v>
-      </c>
-      <c r="D62" s="1">
-        <v>360542</v>
-      </c>
-      <c r="E62" s="1">
-        <v>360542</v>
-      </c>
-      <c r="F62" s="1">
-        <f>SUM(C62:E62)/3</f>
-        <v>360542</v>
-      </c>
-      <c r="M62" s="1">
-        <f>SUM(J62:L62)/3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="2:22">
-      <c r="B63" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C63" s="1">
-        <v>3136</v>
-      </c>
-      <c r="D63" s="1">
-        <v>3136</v>
-      </c>
-      <c r="E63" s="1">
-        <v>3136</v>
-      </c>
-      <c r="F63" s="1">
-        <f>SUM(C63:E63)/3</f>
-        <v>3136</v>
-      </c>
-      <c r="M63" s="1">
-        <f>SUM(J63:L63)/3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="2:13">
-      <c r="B65" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C65" s="1">
-        <v>52500</v>
-      </c>
-    </row>
-    <row r="66" spans="2:13">
-      <c r="B66" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C66" s="1">
-        <v>1</v>
-      </c>
-      <c r="D66" s="1">
-        <v>2</v>
-      </c>
-      <c r="E66" s="1">
-        <v>3</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M66" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="67" spans="2:13">
-      <c r="B67" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C67" s="1">
-        <v>11026544434</v>
-      </c>
-      <c r="D67" s="1">
-        <v>11026544434</v>
-      </c>
-      <c r="E67" s="1">
-        <v>11026544434</v>
-      </c>
-      <c r="F67" s="1">
-        <f>SUM(C67:E67)/3</f>
-        <v>11026544434</v>
-      </c>
-      <c r="M67" s="1">
-        <f>SUM(J67:L67)/3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="2:13">
-      <c r="B68" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C68" s="1">
-        <v>840566</v>
-      </c>
-      <c r="D68" s="1">
-        <v>840566</v>
-      </c>
-      <c r="E68" s="1">
-        <v>840566</v>
-      </c>
-      <c r="F68" s="1">
-        <f>SUM(C68:E68)/3</f>
-        <v>840566</v>
-      </c>
-      <c r="M68" s="1">
-        <f>SUM(J68:L68)/3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="2:13">
-      <c r="B69" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C69" s="1">
-        <v>3136</v>
-      </c>
-      <c r="D69" s="1">
-        <v>3136</v>
-      </c>
-      <c r="E69" s="1">
-        <v>3136</v>
-      </c>
-      <c r="F69" s="1">
-        <f>SUM(C69:E69)/3</f>
-        <v>3136</v>
-      </c>
-      <c r="M69" s="1">
-        <f>SUM(J69:L69)/3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="2:13">
-      <c r="B71" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C71" s="1">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="72" spans="2:13">
-      <c r="B72" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C72" s="1">
-        <v>1</v>
-      </c>
-      <c r="D72" s="1">
-        <v>2</v>
-      </c>
-      <c r="E72" s="1">
-        <v>3</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M72" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="73" spans="2:13">
-      <c r="B73" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C73" s="1">
-        <v>14403674610</v>
-      </c>
-      <c r="D73" s="1">
-        <v>14403674610</v>
-      </c>
-      <c r="E73" s="1">
-        <v>14403674610</v>
-      </c>
-      <c r="F73" s="1">
-        <f>SUM(C73:E73)/3</f>
-        <v>14403674610</v>
-      </c>
-      <c r="M73" s="1">
-        <f>SUM(J73:L73)/3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="2:13">
-      <c r="B74" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C74" s="1">
-        <v>960630</v>
-      </c>
-      <c r="D74" s="1">
-        <v>960630</v>
-      </c>
-      <c r="E74" s="1">
-        <v>960630</v>
-      </c>
-      <c r="F74" s="1">
-        <f>SUM(C74:E74)/3</f>
-        <v>960630</v>
-      </c>
-      <c r="M74" s="1">
-        <f>SUM(J74:L74)/3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="2:13">
-      <c r="B75" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C75" s="1">
-        <v>3136</v>
-      </c>
-      <c r="D75" s="1">
-        <v>3136</v>
-      </c>
-      <c r="E75" s="1">
-        <v>3136</v>
-      </c>
-      <c r="F75" s="1">
-        <f>SUM(C75:E75)/3</f>
-        <v>3136</v>
-      </c>
-      <c r="M75" s="1">
-        <f>SUM(J75:L75)/3</f>
         <v>0</v>
       </c>
     </row>
@@ -45161,8 +44781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AC69"/>
   <sheetViews>
-    <sheetView topLeftCell="H2" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="10" workbookViewId="0">
-      <selection activeCell="X33" sqref="X33"/>
+    <sheetView topLeftCell="A20" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="10" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29:E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.5" defaultRowHeight="14.25"/>
@@ -46292,21 +45912,25 @@
       <c r="A29" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29">
         <v>8000</v>
       </c>
+      <c r="D29"/>
+      <c r="E29"/>
       <c r="H29" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="I29" t="s">
         <v>9</v>
       </c>
-      <c r="J29" s="1">
+      <c r="J29">
         <v>8000</v>
       </c>
+      <c r="K29"/>
+      <c r="L29"/>
       <c r="O29" s="1" t="s">
         <v>2</v>
       </c>
@@ -46333,31 +45957,31 @@
       </c>
     </row>
     <row r="30" spans="1:23">
-      <c r="B30" s="1" t="s">
+      <c r="B30" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30">
         <v>1</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30">
         <v>2</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30">
         <v>3</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="I30" t="s">
         <v>3</v>
       </c>
-      <c r="J30" s="1">
+      <c r="J30">
         <v>1</v>
       </c>
-      <c r="K30" s="1">
+      <c r="K30">
         <v>2</v>
       </c>
-      <c r="L30" s="1">
+      <c r="L30">
         <v>3</v>
       </c>
       <c r="M30" s="1" t="s">
@@ -46376,11 +46000,11 @@
       </c>
       <c r="S30" s="1">
         <f>F33</f>
-        <v>7496</v>
+        <v>4392</v>
       </c>
       <c r="T30" s="1">
         <f t="shared" ref="T30:T36" si="8">Q30+R30+S30</f>
-        <v>146456</v>
+        <v>143352</v>
       </c>
       <c r="U30" s="1">
         <f t="shared" ref="U30:U36" si="9">W3</f>
@@ -46392,32 +46016,32 @@
       </c>
     </row>
     <row r="31" spans="1:23">
-      <c r="B31" s="1" t="s">
+      <c r="B31" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31">
         <v>138389</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31">
         <v>138389</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31">
         <v>138389</v>
       </c>
       <c r="F31" s="1">
         <f>SUM(C31:E31)/3</f>
         <v>138389</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="I31" t="s">
         <v>10</v>
       </c>
-      <c r="J31" s="1">
+      <c r="J31">
         <v>138389</v>
       </c>
-      <c r="K31" s="1">
+      <c r="K31">
         <v>138389</v>
       </c>
-      <c r="L31" s="1">
+      <c r="L31">
         <v>138389</v>
       </c>
       <c r="M31" s="1">
@@ -46433,15 +46057,15 @@
       </c>
       <c r="R31" s="1">
         <f>F38</f>
-        <v>506</v>
+        <v>571</v>
       </c>
       <c r="S31" s="1">
         <f>F39</f>
-        <v>3848</v>
+        <v>4392</v>
       </c>
       <c r="T31" s="1">
         <f t="shared" si="8"/>
-        <v>206744</v>
+        <v>207353</v>
       </c>
       <c r="U31" s="1">
         <f t="shared" si="9"/>
@@ -46453,32 +46077,32 @@
       </c>
     </row>
     <row r="32" spans="1:23">
-      <c r="B32" s="1" t="s">
+      <c r="B32" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32">
         <v>571</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32">
         <v>571</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32">
         <v>571</v>
       </c>
       <c r="F32" s="1">
         <f>SUM(C32:E32)/3</f>
         <v>571</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="I32" t="s">
         <v>16</v>
       </c>
-      <c r="J32" s="1">
+      <c r="J32">
         <v>571</v>
       </c>
-      <c r="K32" s="1">
+      <c r="K32">
         <v>571</v>
       </c>
-      <c r="L32" s="1">
+      <c r="L32">
         <v>571</v>
       </c>
       <c r="M32" s="1">
@@ -46498,11 +46122,11 @@
       </c>
       <c r="S32" s="1">
         <f>F45</f>
-        <v>4360</v>
+        <v>4392</v>
       </c>
       <c r="T32" s="1">
         <f t="shared" si="8"/>
-        <v>271256</v>
+        <v>271288</v>
       </c>
       <c r="U32" s="1">
         <f t="shared" si="9"/>
@@ -46514,37 +46138,37 @@
       </c>
     </row>
     <row r="33" spans="2:22">
-      <c r="B33" s="1" t="s">
+      <c r="B33" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="1">
-        <v>7496</v>
-      </c>
-      <c r="D33" s="1">
-        <v>7496</v>
-      </c>
-      <c r="E33" s="1">
-        <v>7496</v>
+      <c r="C33">
+        <v>4392</v>
+      </c>
+      <c r="D33">
+        <v>4392</v>
+      </c>
+      <c r="E33">
+        <v>4392</v>
       </c>
       <c r="F33" s="1">
         <f>SUM(C33:E33)/3</f>
-        <v>7496</v>
-      </c>
-      <c r="I33" s="1" t="s">
+        <v>4392</v>
+      </c>
+      <c r="I33" t="s">
         <v>12</v>
       </c>
-      <c r="J33" s="1">
-        <v>7496</v>
-      </c>
-      <c r="K33" s="1">
-        <v>7496</v>
-      </c>
-      <c r="L33" s="1">
-        <v>7496</v>
+      <c r="J33">
+        <v>4392</v>
+      </c>
+      <c r="K33">
+        <v>4392</v>
+      </c>
+      <c r="L33">
+        <v>4392</v>
       </c>
       <c r="M33" s="1">
         <f>SUM(J33:L33)/3</f>
-        <v>7496</v>
+        <v>4392</v>
       </c>
       <c r="P33" s="1">
         <v>32000</v>
@@ -46559,11 +46183,11 @@
       </c>
       <c r="S33" s="1">
         <f>F51</f>
-        <v>3848</v>
+        <v>2896</v>
       </c>
       <c r="T33" s="1">
         <f t="shared" si="8"/>
-        <v>334744</v>
+        <v>333792</v>
       </c>
       <c r="U33" s="1">
         <f t="shared" si="9"/>
@@ -46575,6 +46199,14 @@
       </c>
     </row>
     <row r="34" spans="2:22">
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34"/>
+      <c r="L34"/>
       <c r="P34" s="1">
         <v>40000</v>
       </c>
@@ -46588,11 +46220,11 @@
       </c>
       <c r="S34" s="1">
         <f>F57</f>
-        <v>3848</v>
+        <v>2896</v>
       </c>
       <c r="T34" s="1">
         <f t="shared" si="8"/>
-        <v>398744</v>
+        <v>397792</v>
       </c>
       <c r="U34" s="1">
         <f t="shared" si="9"/>
@@ -46604,18 +46236,22 @@
       </c>
     </row>
     <row r="35" spans="2:22">
-      <c r="B35" s="1" t="s">
+      <c r="B35" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35">
         <v>16000</v>
       </c>
-      <c r="I35" s="1" t="s">
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="I35" t="s">
         <v>9</v>
       </c>
-      <c r="J35" s="1">
+      <c r="J35">
         <v>16000</v>
       </c>
+      <c r="K35"/>
+      <c r="L35"/>
       <c r="P35" s="1">
         <v>48000</v>
       </c>
@@ -46629,11 +46265,11 @@
       </c>
       <c r="S35" s="1">
         <f>F63</f>
-        <v>3080</v>
+        <v>2896</v>
       </c>
       <c r="T35" s="1">
         <f t="shared" si="8"/>
-        <v>461976</v>
+        <v>461792</v>
       </c>
       <c r="U35" s="1">
         <f t="shared" si="9"/>
@@ -46645,31 +46281,31 @@
       </c>
     </row>
     <row r="36" spans="2:22">
-      <c r="B36" s="1" t="s">
+      <c r="B36" t="s">
         <v>3</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36">
         <v>1</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36">
         <v>2</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36">
         <v>3</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="I36" t="s">
         <v>3</v>
       </c>
-      <c r="J36" s="1">
+      <c r="J36">
         <v>1</v>
       </c>
-      <c r="K36" s="1">
+      <c r="K36">
         <v>2</v>
       </c>
-      <c r="L36" s="1">
+      <c r="L36">
         <v>3</v>
       </c>
       <c r="M36" s="1" t="s">
@@ -46704,32 +46340,32 @@
       </c>
     </row>
     <row r="37" spans="2:22">
-      <c r="B37" s="1" t="s">
+      <c r="B37" t="s">
         <v>10</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37">
         <v>202390</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37">
         <v>202390</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37">
         <v>202390</v>
       </c>
       <c r="F37" s="1">
         <f>SUM(C37:E37)/3</f>
         <v>202390</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="I37" t="s">
         <v>10</v>
       </c>
-      <c r="J37" s="1">
+      <c r="J37">
         <v>202390</v>
       </c>
-      <c r="K37" s="1">
+      <c r="K37">
         <v>202390</v>
       </c>
-      <c r="L37" s="1">
+      <c r="L37">
         <v>202390</v>
       </c>
       <c r="M37" s="1">
@@ -46739,113 +46375,127 @@
       <c r="V37" s="4"/>
     </row>
     <row r="38" spans="2:22">
-      <c r="B38" s="1" t="s">
+      <c r="B38" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="1">
-        <v>506</v>
-      </c>
-      <c r="D38" s="1">
-        <v>506</v>
-      </c>
-      <c r="E38" s="1">
-        <v>506</v>
+      <c r="C38">
+        <v>571</v>
+      </c>
+      <c r="D38">
+        <v>571</v>
+      </c>
+      <c r="E38">
+        <v>571</v>
       </c>
       <c r="F38" s="1">
         <f>SUM(C38:E38)/3</f>
-        <v>506</v>
-      </c>
-      <c r="I38" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="I38" t="s">
         <v>16</v>
       </c>
-      <c r="J38" s="1">
-        <v>506</v>
-      </c>
-      <c r="K38" s="1">
-        <v>506</v>
-      </c>
-      <c r="L38" s="1">
-        <v>506</v>
+      <c r="J38">
+        <v>571</v>
+      </c>
+      <c r="K38">
+        <v>571</v>
+      </c>
+      <c r="L38">
+        <v>571</v>
       </c>
       <c r="M38" s="1">
         <f>SUM(J38:L38)/3</f>
-        <v>506</v>
+        <v>571</v>
       </c>
     </row>
     <row r="39" spans="2:22">
-      <c r="B39" s="1" t="s">
+      <c r="B39" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="1">
-        <v>3848</v>
-      </c>
-      <c r="D39" s="1">
-        <v>3848</v>
-      </c>
-      <c r="E39" s="1">
-        <v>3848</v>
+      <c r="C39">
+        <v>4392</v>
+      </c>
+      <c r="D39">
+        <v>4392</v>
+      </c>
+      <c r="E39">
+        <v>4392</v>
       </c>
       <c r="F39" s="1">
         <f>SUM(C39:E39)/3</f>
-        <v>3848</v>
-      </c>
-      <c r="I39" s="1" t="s">
+        <v>4392</v>
+      </c>
+      <c r="I39" t="s">
         <v>12</v>
       </c>
-      <c r="J39" s="1">
-        <v>3848</v>
-      </c>
-      <c r="K39" s="1">
-        <v>3848</v>
-      </c>
-      <c r="L39" s="1">
-        <v>3848</v>
+      <c r="J39">
+        <v>4392</v>
+      </c>
+      <c r="K39">
+        <v>4392</v>
+      </c>
+      <c r="L39">
+        <v>4392</v>
       </c>
       <c r="M39" s="1">
         <f>SUM(J39:L39)/3</f>
-        <v>3848</v>
-      </c>
+        <v>4392</v>
+      </c>
+    </row>
+    <row r="40" spans="2:22">
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="I40"/>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="L40"/>
     </row>
     <row r="41" spans="2:22">
-      <c r="B41" s="1" t="s">
+      <c r="B41" t="s">
         <v>9</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41">
         <v>24000</v>
       </c>
-      <c r="I41" s="1" t="s">
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="I41" t="s">
         <v>9</v>
       </c>
-      <c r="J41" s="1">
+      <c r="J41">
         <v>24000</v>
       </c>
+      <c r="K41"/>
+      <c r="L41"/>
     </row>
     <row r="42" spans="2:22">
-      <c r="B42" s="1" t="s">
+      <c r="B42" t="s">
         <v>3</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42">
         <v>1</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42">
         <v>2</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42">
         <v>3</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I42" s="1" t="s">
+      <c r="I42" t="s">
         <v>3</v>
       </c>
-      <c r="J42" s="1">
+      <c r="J42">
         <v>1</v>
       </c>
-      <c r="K42" s="1">
+      <c r="K42">
         <v>2</v>
       </c>
-      <c r="L42" s="1">
+      <c r="L42">
         <v>3</v>
       </c>
       <c r="M42" s="1" t="s">
@@ -46877,32 +46527,32 @@
       </c>
     </row>
     <row r="43" spans="2:22">
-      <c r="B43" s="1" t="s">
+      <c r="B43" t="s">
         <v>10</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43">
         <v>266390</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43">
         <v>266390</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E43">
         <v>266390</v>
       </c>
       <c r="F43" s="1">
         <f>SUM(C43:E43)/3</f>
         <v>266390</v>
       </c>
-      <c r="I43" s="1" t="s">
+      <c r="I43" t="s">
         <v>10</v>
       </c>
-      <c r="J43" s="1">
+      <c r="J43">
         <v>266390</v>
       </c>
-      <c r="K43" s="1">
+      <c r="K43">
         <v>266390</v>
       </c>
-      <c r="L43" s="1">
+      <c r="L43">
         <v>266390</v>
       </c>
       <c r="M43" s="1">
@@ -46922,11 +46572,11 @@
       </c>
       <c r="S43" s="1">
         <f>M33</f>
-        <v>7496</v>
+        <v>4392</v>
       </c>
       <c r="T43" s="1">
         <f t="shared" ref="T43:T49" si="10">Q43+R43+S43</f>
-        <v>146456</v>
+        <v>143352</v>
       </c>
       <c r="U43" s="1">
         <f t="shared" ref="U43:U49" si="11">W16</f>
@@ -46938,32 +46588,32 @@
       </c>
     </row>
     <row r="44" spans="2:22">
-      <c r="B44" s="1" t="s">
+      <c r="B44" t="s">
         <v>16</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44">
         <v>506</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44">
         <v>506</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E44">
         <v>506</v>
       </c>
       <c r="F44" s="1">
         <f>SUM(C44:E44)/3</f>
         <v>506</v>
       </c>
-      <c r="I44" s="1" t="s">
+      <c r="I44" t="s">
         <v>16</v>
       </c>
-      <c r="J44" s="1">
+      <c r="J44">
         <v>506</v>
       </c>
-      <c r="K44" s="1">
+      <c r="K44">
         <v>506</v>
       </c>
-      <c r="L44" s="1">
+      <c r="L44">
         <v>506</v>
       </c>
       <c r="M44" s="1">
@@ -46979,15 +46629,15 @@
       </c>
       <c r="R44" s="1">
         <f>M38</f>
-        <v>506</v>
+        <v>571</v>
       </c>
       <c r="S44" s="1">
         <f>M39</f>
-        <v>3848</v>
+        <v>4392</v>
       </c>
       <c r="T44" s="1">
         <f t="shared" si="10"/>
-        <v>206744</v>
+        <v>207353</v>
       </c>
       <c r="U44" s="1">
         <f t="shared" si="11"/>
@@ -46999,37 +46649,37 @@
       </c>
     </row>
     <row r="45" spans="2:22">
-      <c r="B45" s="1" t="s">
+      <c r="B45" t="s">
         <v>12</v>
       </c>
-      <c r="C45" s="1">
-        <v>4360</v>
-      </c>
-      <c r="D45" s="1">
-        <v>4360</v>
-      </c>
-      <c r="E45" s="1">
-        <v>4360</v>
+      <c r="C45">
+        <v>4392</v>
+      </c>
+      <c r="D45">
+        <v>4392</v>
+      </c>
+      <c r="E45">
+        <v>4392</v>
       </c>
       <c r="F45" s="1">
         <f>SUM(C45:E45)/3</f>
-        <v>4360</v>
-      </c>
-      <c r="I45" s="1" t="s">
+        <v>4392</v>
+      </c>
+      <c r="I45" t="s">
         <v>12</v>
       </c>
-      <c r="J45" s="1">
-        <v>4360</v>
-      </c>
-      <c r="K45" s="1">
-        <v>4360</v>
-      </c>
-      <c r="L45" s="1">
-        <v>4360</v>
+      <c r="J45">
+        <v>4392</v>
+      </c>
+      <c r="K45">
+        <v>4392</v>
+      </c>
+      <c r="L45">
+        <v>4392</v>
       </c>
       <c r="M45" s="1">
         <f>SUM(J45:L45)/3</f>
-        <v>4360</v>
+        <v>4392</v>
       </c>
       <c r="P45" s="1">
         <v>24000</v>
@@ -47044,11 +46694,11 @@
       </c>
       <c r="S45" s="1">
         <f>M45</f>
-        <v>4360</v>
+        <v>4392</v>
       </c>
       <c r="T45" s="1">
         <f t="shared" si="10"/>
-        <v>271256</v>
+        <v>271288</v>
       </c>
       <c r="U45" s="1">
         <f t="shared" si="11"/>
@@ -47060,6 +46710,14 @@
       </c>
     </row>
     <row r="46" spans="2:22">
+      <c r="B46"/>
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46"/>
+      <c r="I46"/>
+      <c r="J46"/>
+      <c r="K46"/>
+      <c r="L46"/>
       <c r="P46" s="1">
         <v>32000</v>
       </c>
@@ -47073,11 +46731,11 @@
       </c>
       <c r="S46" s="1">
         <f>M51</f>
-        <v>3848</v>
+        <v>3088</v>
       </c>
       <c r="T46" s="1">
         <f t="shared" si="10"/>
-        <v>334744</v>
+        <v>333984</v>
       </c>
       <c r="U46" s="1">
         <f t="shared" si="11"/>
@@ -47089,18 +46747,22 @@
       </c>
     </row>
     <row r="47" spans="2:22">
-      <c r="B47" s="1" t="s">
+      <c r="B47" t="s">
         <v>9</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47">
         <v>32000</v>
       </c>
-      <c r="I47" s="1" t="s">
+      <c r="D47"/>
+      <c r="E47"/>
+      <c r="I47" t="s">
         <v>9</v>
       </c>
-      <c r="J47" s="1">
+      <c r="J47">
         <v>32000</v>
       </c>
+      <c r="K47"/>
+      <c r="L47"/>
       <c r="P47" s="1">
         <v>40000</v>
       </c>
@@ -47114,11 +46776,11 @@
       </c>
       <c r="S47" s="1">
         <f>M57</f>
-        <v>3848</v>
+        <v>3088</v>
       </c>
       <c r="T47" s="1">
         <f t="shared" si="10"/>
-        <v>398744</v>
+        <v>397984</v>
       </c>
       <c r="U47" s="1">
         <f t="shared" si="11"/>
@@ -47130,31 +46792,31 @@
       </c>
     </row>
     <row r="48" spans="2:22">
-      <c r="B48" s="1" t="s">
+      <c r="B48" t="s">
         <v>3</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48">
         <v>1</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D48">
         <v>2</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E48">
         <v>3</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I48" s="1" t="s">
+      <c r="I48" t="s">
         <v>3</v>
       </c>
-      <c r="J48" s="1">
+      <c r="J48">
         <v>1</v>
       </c>
-      <c r="K48" s="1">
+      <c r="K48">
         <v>2</v>
       </c>
-      <c r="L48" s="1">
+      <c r="L48">
         <v>3</v>
       </c>
       <c r="M48" s="1" t="s">
@@ -47189,32 +46851,32 @@
       </c>
     </row>
     <row r="49" spans="2:22">
-      <c r="B49" s="1" t="s">
+      <c r="B49" t="s">
         <v>10</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49">
         <v>330390</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D49">
         <v>330390</v>
       </c>
-      <c r="E49" s="1">
+      <c r="E49">
         <v>330390</v>
       </c>
       <c r="F49" s="1">
         <f>SUM(C49:E49)/3</f>
         <v>330390</v>
       </c>
-      <c r="I49" s="1" t="s">
+      <c r="I49" t="s">
         <v>10</v>
       </c>
-      <c r="J49" s="1">
+      <c r="J49">
         <v>330390</v>
       </c>
-      <c r="K49" s="1">
+      <c r="K49">
         <v>330390</v>
       </c>
-      <c r="L49" s="1">
+      <c r="L49">
         <v>330390</v>
       </c>
       <c r="M49" s="1">
@@ -47234,11 +46896,11 @@
       </c>
       <c r="S49" s="1">
         <f>M69</f>
-        <v>3104</v>
+        <v>3088</v>
       </c>
       <c r="T49" s="1">
         <f t="shared" si="10"/>
-        <v>526000</v>
+        <v>525984</v>
       </c>
       <c r="U49" s="1">
         <f t="shared" si="11"/>
@@ -47250,32 +46912,32 @@
       </c>
     </row>
     <row r="50" spans="2:22">
-      <c r="B50" s="1" t="s">
+      <c r="B50" t="s">
         <v>16</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50">
         <v>506</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D50">
         <v>506</v>
       </c>
-      <c r="E50" s="1">
+      <c r="E50">
         <v>506</v>
       </c>
       <c r="F50" s="1">
         <f>SUM(C50:E50)/3</f>
         <v>506</v>
       </c>
-      <c r="I50" s="1" t="s">
+      <c r="I50" t="s">
         <v>16</v>
       </c>
-      <c r="J50" s="1">
+      <c r="J50">
         <v>506</v>
       </c>
-      <c r="K50" s="1">
+      <c r="K50">
         <v>506</v>
       </c>
-      <c r="L50" s="1">
+      <c r="L50">
         <v>506</v>
       </c>
       <c r="M50" s="1">
@@ -47284,79 +46946,93 @@
       </c>
     </row>
     <row r="51" spans="2:22">
-      <c r="B51" s="1" t="s">
+      <c r="B51" t="s">
         <v>12</v>
       </c>
-      <c r="C51" s="1">
-        <v>3848</v>
-      </c>
-      <c r="D51" s="1">
-        <v>3848</v>
-      </c>
-      <c r="E51" s="1">
-        <v>3848</v>
+      <c r="C51">
+        <v>2896</v>
+      </c>
+      <c r="D51">
+        <v>2896</v>
+      </c>
+      <c r="E51">
+        <v>2896</v>
       </c>
       <c r="F51" s="1">
         <f>SUM(C51:E51)/3</f>
-        <v>3848</v>
-      </c>
-      <c r="I51" s="1" t="s">
+        <v>2896</v>
+      </c>
+      <c r="I51" t="s">
         <v>12</v>
       </c>
-      <c r="J51" s="1">
-        <v>3848</v>
-      </c>
-      <c r="K51" s="1">
-        <v>3848</v>
-      </c>
-      <c r="L51" s="1">
-        <v>3848</v>
+      <c r="J51">
+        <v>3088</v>
+      </c>
+      <c r="K51">
+        <v>3088</v>
+      </c>
+      <c r="L51">
+        <v>3088</v>
       </c>
       <c r="M51" s="1">
         <f>SUM(J51:L51)/3</f>
-        <v>3848</v>
-      </c>
+        <v>3088</v>
+      </c>
+    </row>
+    <row r="52" spans="2:22">
+      <c r="B52"/>
+      <c r="C52"/>
+      <c r="D52"/>
+      <c r="E52"/>
+      <c r="I52"/>
+      <c r="J52"/>
+      <c r="K52"/>
+      <c r="L52"/>
     </row>
     <row r="53" spans="2:22">
-      <c r="B53" s="1" t="s">
+      <c r="B53" t="s">
         <v>9</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53">
         <v>40000</v>
       </c>
-      <c r="I53" s="1" t="s">
+      <c r="D53"/>
+      <c r="E53"/>
+      <c r="I53" t="s">
         <v>9</v>
       </c>
-      <c r="J53" s="1">
+      <c r="J53">
         <v>40000</v>
       </c>
+      <c r="K53"/>
+      <c r="L53"/>
     </row>
     <row r="54" spans="2:22">
-      <c r="B54" s="1" t="s">
+      <c r="B54" t="s">
         <v>3</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C54">
         <v>1</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D54">
         <v>2</v>
       </c>
-      <c r="E54" s="1">
+      <c r="E54">
         <v>3</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I54" s="1" t="s">
+      <c r="I54" t="s">
         <v>3</v>
       </c>
-      <c r="J54" s="1">
+      <c r="J54">
         <v>1</v>
       </c>
-      <c r="K54" s="1">
+      <c r="K54">
         <v>2</v>
       </c>
-      <c r="L54" s="1">
+      <c r="L54">
         <v>3</v>
       </c>
       <c r="M54" s="1" t="s">
@@ -47364,32 +47040,32 @@
       </c>
     </row>
     <row r="55" spans="2:22">
-      <c r="B55" s="1" t="s">
+      <c r="B55" t="s">
         <v>10</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C55">
         <v>394390</v>
       </c>
-      <c r="D55" s="1">
+      <c r="D55">
         <v>394390</v>
       </c>
-      <c r="E55" s="1">
+      <c r="E55">
         <v>394390</v>
       </c>
       <c r="F55" s="1">
         <f>SUM(C55:E55)/3</f>
         <v>394390</v>
       </c>
-      <c r="I55" s="1" t="s">
+      <c r="I55" t="s">
         <v>10</v>
       </c>
-      <c r="J55" s="1">
+      <c r="J55">
         <v>394390</v>
       </c>
-      <c r="K55" s="1">
+      <c r="K55">
         <v>394390</v>
       </c>
-      <c r="L55" s="1">
+      <c r="L55">
         <v>394390</v>
       </c>
       <c r="M55" s="1">
@@ -47398,32 +47074,32 @@
       </c>
     </row>
     <row r="56" spans="2:22">
-      <c r="B56" s="1" t="s">
+      <c r="B56" t="s">
         <v>16</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C56">
         <v>506</v>
       </c>
-      <c r="D56" s="1">
+      <c r="D56">
         <v>506</v>
       </c>
-      <c r="E56" s="1">
+      <c r="E56">
         <v>506</v>
       </c>
       <c r="F56" s="1">
         <f>SUM(C56:E56)/3</f>
         <v>506</v>
       </c>
-      <c r="I56" s="1" t="s">
+      <c r="I56" t="s">
         <v>16</v>
       </c>
-      <c r="J56" s="1">
+      <c r="J56">
         <v>506</v>
       </c>
-      <c r="K56" s="1">
+      <c r="K56">
         <v>506</v>
       </c>
-      <c r="L56" s="1">
+      <c r="L56">
         <v>506</v>
       </c>
       <c r="M56" s="1">
@@ -47432,79 +47108,93 @@
       </c>
     </row>
     <row r="57" spans="2:22">
-      <c r="B57" s="1" t="s">
+      <c r="B57" t="s">
         <v>12</v>
       </c>
-      <c r="C57" s="1">
-        <v>3848</v>
-      </c>
-      <c r="D57" s="1">
-        <v>3848</v>
-      </c>
-      <c r="E57" s="1">
-        <v>3848</v>
+      <c r="C57">
+        <v>2896</v>
+      </c>
+      <c r="D57">
+        <v>2896</v>
+      </c>
+      <c r="E57">
+        <v>2896</v>
       </c>
       <c r="F57" s="1">
         <f>SUM(C57:E57)/3</f>
-        <v>3848</v>
-      </c>
-      <c r="I57" s="1" t="s">
+        <v>2896</v>
+      </c>
+      <c r="I57" t="s">
         <v>12</v>
       </c>
-      <c r="J57" s="1">
-        <v>3848</v>
-      </c>
-      <c r="K57" s="1">
-        <v>3848</v>
-      </c>
-      <c r="L57" s="1">
-        <v>3848</v>
+      <c r="J57">
+        <v>3088</v>
+      </c>
+      <c r="K57">
+        <v>3088</v>
+      </c>
+      <c r="L57">
+        <v>3088</v>
       </c>
       <c r="M57" s="1">
         <f>SUM(J57:L57)/3</f>
-        <v>3848</v>
-      </c>
+        <v>3088</v>
+      </c>
+    </row>
+    <row r="58" spans="2:22">
+      <c r="B58"/>
+      <c r="C58"/>
+      <c r="D58"/>
+      <c r="E58"/>
+      <c r="I58"/>
+      <c r="J58"/>
+      <c r="K58"/>
+      <c r="L58"/>
     </row>
     <row r="59" spans="2:22">
-      <c r="B59" s="1" t="s">
+      <c r="B59" t="s">
         <v>9</v>
       </c>
-      <c r="C59" s="1">
+      <c r="C59">
         <v>48000</v>
       </c>
-      <c r="I59" s="1" t="s">
+      <c r="D59"/>
+      <c r="E59"/>
+      <c r="I59" t="s">
         <v>9</v>
       </c>
-      <c r="J59" s="1">
+      <c r="J59">
         <v>48000</v>
       </c>
+      <c r="K59"/>
+      <c r="L59"/>
     </row>
     <row r="60" spans="2:22">
-      <c r="B60" s="1" t="s">
+      <c r="B60" t="s">
         <v>3</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C60">
         <v>1</v>
       </c>
-      <c r="D60" s="1">
+      <c r="D60">
         <v>2</v>
       </c>
-      <c r="E60" s="1">
+      <c r="E60">
         <v>3</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I60" s="1" t="s">
+      <c r="I60" t="s">
         <v>3</v>
       </c>
-      <c r="J60" s="1">
+      <c r="J60">
         <v>1</v>
       </c>
-      <c r="K60" s="1">
+      <c r="K60">
         <v>2</v>
       </c>
-      <c r="L60" s="1">
+      <c r="L60">
         <v>3</v>
       </c>
       <c r="M60" s="1" t="s">
@@ -47512,32 +47202,32 @@
       </c>
     </row>
     <row r="61" spans="2:22">
-      <c r="B61" s="1" t="s">
+      <c r="B61" t="s">
         <v>10</v>
       </c>
-      <c r="C61" s="1">
+      <c r="C61">
         <v>458390</v>
       </c>
-      <c r="D61" s="1">
+      <c r="D61">
         <v>458390</v>
       </c>
-      <c r="E61" s="1">
+      <c r="E61">
         <v>458390</v>
       </c>
       <c r="F61" s="1">
         <f>SUM(C61:E61)/3</f>
         <v>458390</v>
       </c>
-      <c r="I61" s="1" t="s">
+      <c r="I61" t="s">
         <v>10</v>
       </c>
-      <c r="J61" s="1">
+      <c r="J61">
         <v>458390</v>
       </c>
-      <c r="K61" s="1">
+      <c r="K61">
         <v>458390</v>
       </c>
-      <c r="L61" s="1">
+      <c r="L61">
         <v>458390</v>
       </c>
       <c r="M61" s="1">
@@ -47546,32 +47236,32 @@
       </c>
     </row>
     <row r="62" spans="2:22">
-      <c r="B62" s="1" t="s">
+      <c r="B62" t="s">
         <v>16</v>
       </c>
-      <c r="C62" s="1">
+      <c r="C62">
         <v>506</v>
       </c>
-      <c r="D62" s="1">
+      <c r="D62">
         <v>506</v>
       </c>
-      <c r="E62" s="1">
+      <c r="E62">
         <v>506</v>
       </c>
       <c r="F62" s="1">
         <f>SUM(C62:E62)/3</f>
         <v>506</v>
       </c>
-      <c r="I62" s="1" t="s">
+      <c r="I62" t="s">
         <v>16</v>
       </c>
-      <c r="J62" s="1">
+      <c r="J62">
         <v>506</v>
       </c>
-      <c r="K62" s="1">
+      <c r="K62">
         <v>506</v>
       </c>
-      <c r="L62" s="1">
+      <c r="L62">
         <v>506</v>
       </c>
       <c r="M62" s="1">
@@ -47580,32 +47270,32 @@
       </c>
     </row>
     <row r="63" spans="2:22">
-      <c r="B63" s="1" t="s">
+      <c r="B63" t="s">
         <v>12</v>
       </c>
-      <c r="C63" s="1">
-        <v>3080</v>
-      </c>
-      <c r="D63" s="1">
-        <v>3080</v>
-      </c>
-      <c r="E63" s="1">
-        <v>3080</v>
+      <c r="C63">
+        <v>2896</v>
+      </c>
+      <c r="D63">
+        <v>2896</v>
+      </c>
+      <c r="E63">
+        <v>2896</v>
       </c>
       <c r="F63" s="1">
         <f>SUM(C63:E63)/3</f>
-        <v>3080</v>
-      </c>
-      <c r="I63" s="1" t="s">
+        <v>2896</v>
+      </c>
+      <c r="I63" t="s">
         <v>12</v>
       </c>
-      <c r="J63" s="1">
+      <c r="J63">
         <v>3088</v>
       </c>
-      <c r="K63" s="1">
+      <c r="K63">
         <v>3088</v>
       </c>
-      <c r="L63" s="1">
+      <c r="L63">
         <v>3088</v>
       </c>
       <c r="M63" s="1">
@@ -47613,46 +47303,60 @@
         <v>3088</v>
       </c>
     </row>
+    <row r="64" spans="2:22">
+      <c r="B64"/>
+      <c r="C64"/>
+      <c r="D64"/>
+      <c r="E64"/>
+      <c r="I64"/>
+      <c r="J64"/>
+      <c r="K64"/>
+      <c r="L64"/>
+    </row>
     <row r="65" spans="2:13">
-      <c r="B65" s="1" t="s">
+      <c r="B65" t="s">
         <v>9</v>
       </c>
-      <c r="C65" s="1">
+      <c r="C65">
         <v>56000</v>
       </c>
-      <c r="I65" s="1" t="s">
+      <c r="D65"/>
+      <c r="E65"/>
+      <c r="I65" t="s">
         <v>9</v>
       </c>
-      <c r="J65" s="1">
+      <c r="J65">
         <v>56000</v>
       </c>
+      <c r="K65"/>
+      <c r="L65"/>
     </row>
     <row r="66" spans="2:13">
-      <c r="B66" s="1" t="s">
+      <c r="B66" t="s">
         <v>3</v>
       </c>
-      <c r="C66" s="1">
+      <c r="C66">
         <v>1</v>
       </c>
-      <c r="D66" s="1">
+      <c r="D66">
         <v>2</v>
       </c>
-      <c r="E66" s="1">
+      <c r="E66">
         <v>3</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I66" s="1" t="s">
+      <c r="I66" t="s">
         <v>3</v>
       </c>
-      <c r="J66" s="1">
+      <c r="J66">
         <v>1</v>
       </c>
-      <c r="K66" s="1">
+      <c r="K66">
         <v>2</v>
       </c>
-      <c r="L66" s="1">
+      <c r="L66">
         <v>3</v>
       </c>
       <c r="M66" s="1" t="s">
@@ -47660,32 +47364,32 @@
       </c>
     </row>
     <row r="67" spans="2:13">
-      <c r="B67" s="1" t="s">
+      <c r="B67" t="s">
         <v>10</v>
       </c>
-      <c r="C67" s="1">
+      <c r="C67">
         <v>522390</v>
       </c>
-      <c r="D67" s="1">
+      <c r="D67">
         <v>522390</v>
       </c>
-      <c r="E67" s="1">
+      <c r="E67">
         <v>522390</v>
       </c>
       <c r="F67" s="1">
         <f>SUM(C67:E67)/3</f>
         <v>522390</v>
       </c>
-      <c r="I67" s="1" t="s">
+      <c r="I67" t="s">
         <v>10</v>
       </c>
-      <c r="J67" s="1">
+      <c r="J67">
         <v>522390</v>
       </c>
-      <c r="K67" s="1">
+      <c r="K67">
         <v>522390</v>
       </c>
-      <c r="L67" s="1">
+      <c r="L67">
         <v>522390</v>
       </c>
       <c r="M67" s="1">
@@ -47694,32 +47398,32 @@
       </c>
     </row>
     <row r="68" spans="2:13">
-      <c r="B68" s="1" t="s">
+      <c r="B68" t="s">
         <v>16</v>
       </c>
-      <c r="C68" s="1">
+      <c r="C68">
         <v>506</v>
       </c>
-      <c r="D68" s="1">
+      <c r="D68">
         <v>506</v>
       </c>
-      <c r="E68" s="1">
+      <c r="E68">
         <v>506</v>
       </c>
       <c r="F68" s="1">
         <f>SUM(C68:E68)/3</f>
         <v>506</v>
       </c>
-      <c r="I68" s="1" t="s">
+      <c r="I68" t="s">
         <v>16</v>
       </c>
-      <c r="J68" s="1">
+      <c r="J68">
         <v>506</v>
       </c>
-      <c r="K68" s="1">
+      <c r="K68">
         <v>506</v>
       </c>
-      <c r="L68" s="1">
+      <c r="L68">
         <v>506</v>
       </c>
       <c r="M68" s="1">
@@ -47728,37 +47432,37 @@
       </c>
     </row>
     <row r="69" spans="2:13">
-      <c r="B69" s="1" t="s">
+      <c r="B69" t="s">
         <v>12</v>
       </c>
-      <c r="C69" s="1">
+      <c r="C69">
         <v>2896</v>
       </c>
-      <c r="D69" s="1">
+      <c r="D69">
         <v>2896</v>
       </c>
-      <c r="E69" s="1">
+      <c r="E69">
         <v>2896</v>
       </c>
       <c r="F69" s="1">
         <f>SUM(C69:E69)/3</f>
         <v>2896</v>
       </c>
-      <c r="I69" s="1" t="s">
+      <c r="I69" t="s">
         <v>12</v>
       </c>
-      <c r="J69" s="1">
-        <v>3104</v>
-      </c>
-      <c r="K69" s="1">
-        <v>3104</v>
-      </c>
-      <c r="L69" s="1">
-        <v>3104</v>
+      <c r="J69">
+        <v>3088</v>
+      </c>
+      <c r="K69">
+        <v>3088</v>
+      </c>
+      <c r="L69">
+        <v>3088</v>
       </c>
       <c r="M69" s="1">
         <f>SUM(J69:L69)/3</f>
-        <v>3104</v>
+        <v>3088</v>
       </c>
     </row>
   </sheetData>
@@ -47772,8 +47476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AC69"/>
   <sheetViews>
-    <sheetView topLeftCell="Q11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29:L69"/>
+    <sheetView topLeftCell="V1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.5" defaultRowHeight="14.25"/>
@@ -48415,52 +48119,52 @@
         <v>8000</v>
       </c>
       <c r="C16" s="1">
-        <v>0.72</v>
+        <v>0.14449999999999999</v>
       </c>
       <c r="D16" s="1">
-        <v>0.74399999999999999</v>
+        <v>0.14219999999999999</v>
       </c>
       <c r="E16" s="1">
-        <v>0.72699999999999998</v>
+        <v>0.14219999999999999</v>
       </c>
       <c r="F16" s="1">
-        <v>0.70599999999999996</v>
+        <v>0.1434</v>
       </c>
       <c r="G16" s="1">
-        <v>0.70299999999999996</v>
+        <v>0.14530000000000001</v>
       </c>
       <c r="H16" s="1">
-        <v>0.68700000000000006</v>
+        <v>0.1394</v>
       </c>
       <c r="I16" s="1">
-        <v>0.68700000000000006</v>
+        <v>0.13950000000000001</v>
       </c>
       <c r="J16" s="1">
-        <v>0.70099999999999996</v>
+        <v>0.1389</v>
       </c>
       <c r="K16" s="1">
-        <v>0.69099999999999995</v>
+        <v>0.13880000000000001</v>
       </c>
       <c r="L16" s="1">
-        <v>0.73499999999999999</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="M16" s="1">
-        <v>0.73799999999999999</v>
+        <v>0.14230000000000001</v>
       </c>
       <c r="N16" s="1">
-        <v>0.73199999999999998</v>
+        <v>0.1452</v>
       </c>
       <c r="O16" s="1">
         <f t="shared" ref="O16:O22" si="4">MIN(C16:N16)</f>
-        <v>0.68700000000000006</v>
+        <v>0.13880000000000001</v>
       </c>
       <c r="P16" s="1">
         <f t="shared" ref="P16:P22" si="5">MAX(C16:N16)</f>
-        <v>0.74399999999999999</v>
+        <v>0.14530000000000001</v>
       </c>
       <c r="Q16" s="1">
         <f t="shared" ref="Q16:Q22" si="6">(SUM(C16:N16)-O16-P16)/10</f>
-        <v>0.71399999999999997</v>
+        <v>0.14188000000000001</v>
       </c>
       <c r="S16" s="1">
         <v>8000</v>
@@ -48484,52 +48188,52 @@
         <v>16000</v>
       </c>
       <c r="C17" s="1">
-        <v>4.5380000000000003</v>
+        <v>0.53859999999999997</v>
       </c>
       <c r="D17" s="1">
-        <v>4.7910000000000004</v>
+        <v>0.54649999999999999</v>
       </c>
       <c r="E17" s="1">
-        <v>4.7939999999999996</v>
+        <v>0.54239999999999999</v>
       </c>
       <c r="F17" s="1">
-        <v>5.0330000000000004</v>
+        <v>0.5413</v>
       </c>
       <c r="G17" s="1">
-        <v>4.8559999999999999</v>
+        <v>0.53879999999999995</v>
       </c>
       <c r="H17" s="1">
-        <v>4.9240000000000004</v>
+        <v>0.53810000000000002</v>
       </c>
       <c r="I17" s="1">
-        <v>4.8369999999999997</v>
+        <v>0.53510000000000002</v>
       </c>
       <c r="J17" s="1">
-        <v>4.9560000000000004</v>
+        <v>0.54339999999999999</v>
       </c>
       <c r="K17" s="1">
-        <v>4.625</v>
+        <v>0.53959999999999997</v>
       </c>
       <c r="L17" s="1">
-        <v>4.84</v>
+        <v>0.53700000000000003</v>
       </c>
       <c r="M17" s="1">
-        <v>4.8230000000000004</v>
+        <v>0.53659999999999997</v>
       </c>
       <c r="N17" s="1">
-        <v>4.8789999999999996</v>
+        <v>0.54679999999999995</v>
       </c>
       <c r="O17" s="1">
         <f t="shared" si="4"/>
-        <v>4.5380000000000003</v>
+        <v>0.53510000000000002</v>
       </c>
       <c r="P17" s="1">
         <f t="shared" si="5"/>
-        <v>5.0330000000000004</v>
+        <v>0.54679999999999995</v>
       </c>
       <c r="Q17" s="1">
         <f t="shared" si="6"/>
-        <v>4.8325000000000005</v>
+        <v>0.54022999999999999</v>
       </c>
       <c r="S17" s="1">
         <v>16000</v>
@@ -48553,52 +48257,52 @@
         <v>24000</v>
       </c>
       <c r="C18" s="1">
-        <v>16.225000000000001</v>
+        <v>1.1977</v>
       </c>
       <c r="D18" s="1">
-        <v>15.04</v>
+        <v>1.1969000000000001</v>
       </c>
       <c r="E18" s="1">
-        <v>15.555</v>
+        <v>1.1957</v>
       </c>
       <c r="F18" s="1">
-        <v>16.074999999999999</v>
+        <v>1.1949000000000001</v>
       </c>
       <c r="G18" s="1">
-        <v>15.023999999999999</v>
+        <v>1.1914</v>
       </c>
       <c r="H18" s="1">
-        <v>15.256</v>
+        <v>1.1915</v>
       </c>
       <c r="I18" s="1">
-        <v>15.611000000000001</v>
+        <v>1.1901999999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>14.617000000000001</v>
+        <v>1.21</v>
       </c>
       <c r="K18" s="1">
-        <v>15.375</v>
+        <v>1.1987000000000001</v>
       </c>
       <c r="L18" s="1">
-        <v>14.920999999999999</v>
+        <v>1.1973</v>
       </c>
       <c r="M18" s="1">
-        <v>15.090999999999999</v>
+        <v>1.2004999999999999</v>
       </c>
       <c r="N18" s="1">
-        <v>15.651</v>
+        <v>1.1924999999999999</v>
       </c>
       <c r="O18" s="1">
         <f t="shared" si="4"/>
-        <v>14.617000000000001</v>
+        <v>1.1901999999999999</v>
       </c>
       <c r="P18" s="1">
         <f t="shared" si="5"/>
-        <v>16.225000000000001</v>
+        <v>1.21</v>
       </c>
       <c r="Q18" s="1">
         <f t="shared" si="6"/>
-        <v>15.359900000000005</v>
+        <v>1.1957100000000001</v>
       </c>
       <c r="S18" s="1">
         <v>24000</v>
@@ -48622,52 +48326,52 @@
         <v>32000</v>
       </c>
       <c r="C19" s="1">
-        <v>30.706</v>
+        <v>2.1076999999999999</v>
       </c>
       <c r="D19" s="1">
-        <v>33.255000000000003</v>
+        <v>2.1294</v>
       </c>
       <c r="E19" s="1">
-        <v>31.013000000000002</v>
+        <v>2.1139000000000001</v>
       </c>
       <c r="F19" s="1">
-        <v>32.802999999999997</v>
+        <v>2.1273</v>
       </c>
       <c r="G19" s="1">
-        <v>32.970999999999997</v>
+        <v>2.1086999999999998</v>
       </c>
       <c r="H19" s="1">
-        <v>31.091999999999999</v>
+        <v>2.1303999999999998</v>
       </c>
       <c r="I19" s="1">
-        <v>32.414999999999999</v>
+        <v>2.1145999999999998</v>
       </c>
       <c r="J19" s="1">
-        <v>32.487000000000002</v>
+        <v>2.1312000000000002</v>
       </c>
       <c r="K19" s="1">
-        <v>31.209</v>
+        <v>2.1294</v>
       </c>
       <c r="L19" s="1">
-        <v>32.280999999999999</v>
+        <v>2.1177000000000001</v>
       </c>
       <c r="M19" s="1">
-        <v>32.118000000000002</v>
+        <v>2.1164999999999998</v>
       </c>
       <c r="N19" s="1">
-        <v>30.678999999999998</v>
+        <v>2.1112000000000002</v>
       </c>
       <c r="O19" s="1">
         <f t="shared" si="4"/>
-        <v>30.678999999999998</v>
+        <v>2.1076999999999999</v>
       </c>
       <c r="P19" s="1">
         <f t="shared" si="5"/>
-        <v>33.255000000000003</v>
+        <v>2.1312000000000002</v>
       </c>
       <c r="Q19" s="1">
         <f t="shared" si="6"/>
-        <v>31.909499999999998</v>
+        <v>2.11991</v>
       </c>
       <c r="S19" s="1">
         <v>32000</v>
@@ -48691,52 +48395,52 @@
         <v>40000</v>
       </c>
       <c r="C20" s="1">
-        <v>52.07</v>
+        <v>3.3239000000000001</v>
       </c>
       <c r="D20" s="1">
-        <v>52.481999999999999</v>
+        <v>3.3258999999999999</v>
       </c>
       <c r="E20" s="1">
-        <v>52.768999999999998</v>
+        <v>3.3271000000000002</v>
       </c>
       <c r="F20" s="1">
-        <v>57.835999999999999</v>
+        <v>3.3517000000000001</v>
       </c>
       <c r="G20" s="1">
-        <v>54.83</v>
+        <v>3.3542999999999998</v>
       </c>
       <c r="H20" s="1">
-        <v>53.424999999999997</v>
+        <v>3.3673000000000002</v>
       </c>
       <c r="I20" s="1">
-        <v>53.976999999999997</v>
+        <v>3.3231999999999999</v>
       </c>
       <c r="J20" s="1">
-        <v>54.612000000000002</v>
+        <v>3.3613</v>
       </c>
       <c r="K20" s="1">
-        <v>55.046999999999997</v>
+        <v>3.3279000000000001</v>
       </c>
       <c r="L20" s="1">
-        <v>57.228000000000002</v>
+        <v>3.3496000000000001</v>
       </c>
       <c r="M20" s="1">
-        <v>57.805999999999997</v>
+        <v>3.3260999999999998</v>
       </c>
       <c r="N20" s="1">
-        <v>52.941000000000003</v>
+        <v>3.3247</v>
       </c>
       <c r="O20" s="1">
         <f t="shared" si="4"/>
-        <v>52.07</v>
+        <v>3.3231999999999999</v>
       </c>
       <c r="P20" s="1">
         <f t="shared" si="5"/>
-        <v>57.835999999999999</v>
+        <v>3.3673000000000002</v>
       </c>
       <c r="Q20" s="1">
         <f t="shared" si="6"/>
-        <v>54.511699999999998</v>
+        <v>3.3372499999999996</v>
       </c>
       <c r="S20" s="1">
         <v>40000</v>
@@ -48760,52 +48464,52 @@
         <v>48000</v>
       </c>
       <c r="C21" s="1">
-        <v>83.846000000000004</v>
+        <v>4.7758000000000003</v>
       </c>
       <c r="D21" s="1">
-        <v>84.376999999999995</v>
+        <v>4.7396000000000003</v>
       </c>
       <c r="E21" s="1">
-        <v>86.603999999999999</v>
+        <v>4.7544000000000004</v>
       </c>
       <c r="F21" s="1">
-        <v>82.953000000000003</v>
+        <v>4.7807000000000004</v>
       </c>
       <c r="G21" s="1">
-        <v>83.385000000000005</v>
+        <v>4.7354000000000003</v>
       </c>
       <c r="H21" s="1">
-        <v>81.823999999999998</v>
+        <v>4.7377000000000002</v>
       </c>
       <c r="I21" s="1">
-        <v>85.974000000000004</v>
+        <v>4.7188999999999997</v>
       </c>
       <c r="J21" s="1">
-        <v>86.036000000000001</v>
+        <v>4.7175000000000002</v>
       </c>
       <c r="K21" s="1">
-        <v>79.045000000000002</v>
+        <v>4.7117000000000004</v>
       </c>
       <c r="L21" s="1">
-        <v>85.822000000000003</v>
+        <v>4.7355999999999998</v>
       </c>
       <c r="M21" s="1">
-        <v>79.489000000000004</v>
+        <v>4.7413999999999996</v>
       </c>
       <c r="N21" s="1">
-        <v>83.153000000000006</v>
+        <v>4.7489999999999997</v>
       </c>
       <c r="O21" s="1">
         <f t="shared" si="4"/>
-        <v>79.045000000000002</v>
+        <v>4.7117000000000004</v>
       </c>
       <c r="P21" s="1">
         <f t="shared" si="5"/>
-        <v>86.603999999999999</v>
+        <v>4.7807000000000004</v>
       </c>
       <c r="Q21" s="1">
         <f t="shared" si="6"/>
-        <v>83.685900000000004</v>
+        <v>4.7405299999999997</v>
       </c>
       <c r="S21" s="1">
         <v>48000</v>
@@ -48829,52 +48533,52 @@
         <v>56000</v>
       </c>
       <c r="C22" s="1">
-        <v>119.676</v>
+        <v>6.4470999999999998</v>
       </c>
       <c r="D22" s="1">
-        <v>115.482</v>
+        <v>6.4535999999999998</v>
       </c>
       <c r="E22" s="1">
-        <v>124.739</v>
+        <v>6.4396000000000004</v>
       </c>
       <c r="F22" s="1">
-        <v>116.732</v>
+        <v>6.4610000000000003</v>
       </c>
       <c r="G22" s="1">
-        <v>118.474</v>
+        <v>6.4314999999999998</v>
       </c>
       <c r="H22" s="1">
-        <v>119.401</v>
+        <v>6.4542999999999999</v>
       </c>
       <c r="I22" s="1">
-        <v>120.93899999999999</v>
+        <v>6.4356</v>
       </c>
       <c r="J22" s="1">
-        <v>118.54900000000001</v>
+        <v>6.4554</v>
       </c>
       <c r="K22" s="1">
-        <v>120.467</v>
+        <v>6.4653999999999998</v>
       </c>
       <c r="L22" s="1">
-        <v>117.417</v>
+        <v>6.4516</v>
       </c>
       <c r="M22" s="1">
-        <v>112.962</v>
+        <v>6.4462999999999999</v>
       </c>
       <c r="N22" s="1">
-        <v>116.664</v>
+        <v>6.4629000000000003</v>
       </c>
       <c r="O22" s="1">
         <f t="shared" si="4"/>
-        <v>112.962</v>
+        <v>6.4314999999999998</v>
       </c>
       <c r="P22" s="1">
         <f t="shared" si="5"/>
-        <v>124.739</v>
+        <v>6.4653999999999998</v>
       </c>
       <c r="Q22" s="1">
         <f t="shared" si="6"/>
-        <v>118.3801</v>
+        <v>6.4507400000000006</v>
       </c>
       <c r="S22" s="1">
         <v>56000</v>
@@ -49144,17 +48848,17 @@
         <v>12</v>
       </c>
       <c r="J33" s="1">
-        <v>590392</v>
+        <v>638936</v>
       </c>
       <c r="K33" s="1">
-        <v>590392</v>
+        <v>638936</v>
       </c>
       <c r="L33" s="1">
-        <v>590392</v>
+        <v>638936</v>
       </c>
       <c r="M33" s="1">
         <f>SUM(J33:L33)/3</f>
-        <v>590392</v>
+        <v>638936</v>
       </c>
       <c r="P33" s="1">
         <v>32000</v>
@@ -49402,17 +49106,17 @@
         <v>12</v>
       </c>
       <c r="J39" s="1">
-        <v>1131912</v>
+        <v>1279768</v>
       </c>
       <c r="K39" s="1">
-        <v>1131912</v>
+        <v>1279768</v>
       </c>
       <c r="L39" s="1">
-        <v>1131912</v>
+        <v>1279768</v>
       </c>
       <c r="M39" s="1">
         <f>SUM(J39:L39)/3</f>
-        <v>1131912</v>
+        <v>1279768</v>
       </c>
     </row>
     <row r="41" spans="2:22">
@@ -49531,11 +49235,11 @@
       </c>
       <c r="S43" s="1">
         <f>M33</f>
-        <v>590392</v>
+        <v>638936</v>
       </c>
       <c r="T43" s="1">
         <f t="shared" ref="T43:T49" si="10">Q43+R43+S43</f>
-        <v>256825272</v>
+        <v>256873816</v>
       </c>
       <c r="U43" s="1">
         <f t="shared" ref="U43:U49" si="11">W16</f>
@@ -49592,11 +49296,11 @@
       </c>
       <c r="S44" s="1">
         <f>M39</f>
-        <v>1131912</v>
+        <v>1279768</v>
       </c>
       <c r="T44" s="1">
         <f t="shared" si="10"/>
-        <v>1025526808</v>
+        <v>1025674664</v>
       </c>
       <c r="U44" s="1">
         <f t="shared" si="11"/>
@@ -49628,17 +49332,17 @@
         <v>12</v>
       </c>
       <c r="J45" s="1">
-        <v>1597592</v>
+        <v>1907608</v>
       </c>
       <c r="K45" s="1">
-        <v>1597592</v>
+        <v>1907608</v>
       </c>
       <c r="L45" s="1">
-        <v>1597592</v>
+        <v>1907608</v>
       </c>
       <c r="M45" s="1">
         <f>SUM(J45:L45)/3</f>
-        <v>1597592</v>
+        <v>1907608</v>
       </c>
       <c r="P45" s="1">
         <v>24000</v>
@@ -49653,11 +49357,11 @@
       </c>
       <c r="S45" s="1">
         <f>M45</f>
-        <v>1597592</v>
+        <v>1907608</v>
       </c>
       <c r="T45" s="1">
         <f t="shared" si="10"/>
-        <v>2306152488</v>
+        <v>2306462504</v>
       </c>
       <c r="U45" s="1">
         <f t="shared" si="11"/>
@@ -49682,11 +49386,11 @@
       </c>
       <c r="S46" s="1">
         <f>M51</f>
-        <v>2411352</v>
+        <v>2508408</v>
       </c>
       <c r="T46" s="1">
         <f t="shared" si="10"/>
-        <v>4099126248</v>
+        <v>4099223304</v>
       </c>
       <c r="U46" s="1">
         <f t="shared" si="11"/>
@@ -49723,11 +49427,11 @@
       </c>
       <c r="S47" s="1">
         <f>M57</f>
-        <v>2739112</v>
+        <v>3194888</v>
       </c>
       <c r="T47" s="1">
         <f t="shared" si="10"/>
-        <v>6403614008</v>
+        <v>6404069784</v>
       </c>
       <c r="U47" s="1">
         <f t="shared" si="11"/>
@@ -49782,11 +49486,11 @@
       </c>
       <c r="S48" s="1">
         <f>M63</f>
-        <v>3603832</v>
+        <v>3780456</v>
       </c>
       <c r="T48" s="1">
         <f t="shared" si="10"/>
-        <v>9220638728</v>
+        <v>9220815352</v>
       </c>
       <c r="U48" s="1">
         <f t="shared" si="11"/>
@@ -49843,11 +49547,11 @@
       </c>
       <c r="S49" s="1">
         <f>M69</f>
-        <v>3381352</v>
+        <v>4425128</v>
       </c>
       <c r="T49" s="1">
         <f t="shared" si="10"/>
-        <v>12548576248</v>
+        <v>12549620024</v>
       </c>
       <c r="U49" s="1">
         <f t="shared" si="11"/>
@@ -49913,17 +49617,17 @@
         <v>12</v>
       </c>
       <c r="J51" s="1">
-        <v>2411352</v>
+        <v>2508408</v>
       </c>
       <c r="K51" s="1">
-        <v>2411352</v>
+        <v>2508408</v>
       </c>
       <c r="L51" s="1">
-        <v>2411352</v>
+        <v>2508408</v>
       </c>
       <c r="M51" s="1">
         <f>SUM(J51:L51)/3</f>
-        <v>2411352</v>
+        <v>2508408</v>
       </c>
     </row>
     <row r="53" spans="2:22">
@@ -50061,17 +49765,17 @@
         <v>12</v>
       </c>
       <c r="J57" s="1">
-        <v>2739112</v>
+        <v>3194888</v>
       </c>
       <c r="K57" s="1">
-        <v>2739112</v>
+        <v>3194888</v>
       </c>
       <c r="L57" s="1">
-        <v>2739112</v>
+        <v>3194888</v>
       </c>
       <c r="M57" s="1">
         <f>SUM(J57:L57)/3</f>
-        <v>2739112</v>
+        <v>3194888</v>
       </c>
     </row>
     <row r="59" spans="2:22">
@@ -50209,17 +49913,17 @@
         <v>12</v>
       </c>
       <c r="J63" s="1">
-        <v>3603832</v>
+        <v>3780456</v>
       </c>
       <c r="K63" s="1">
-        <v>3603832</v>
+        <v>3780456</v>
       </c>
       <c r="L63" s="1">
-        <v>3603832</v>
+        <v>3780456</v>
       </c>
       <c r="M63" s="1">
         <f>SUM(J63:L63)/3</f>
-        <v>3603832</v>
+        <v>3780456</v>
       </c>
     </row>
     <row r="65" spans="2:13">
@@ -50357,17 +50061,17 @@
         <v>12</v>
       </c>
       <c r="J69" s="1">
-        <v>3381352</v>
+        <v>4425128</v>
       </c>
       <c r="K69" s="1">
-        <v>3381352</v>
+        <v>4425128</v>
       </c>
       <c r="L69" s="1">
-        <v>3381352</v>
+        <v>4425128</v>
       </c>
       <c r="M69" s="1">
         <f>SUM(J69:L69)/3</f>
-        <v>3381352</v>
+        <v>4425128</v>
       </c>
     </row>
   </sheetData>
@@ -50383,10 +50087,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:W75"/>
+  <dimension ref="A1:W63"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="L78" sqref="I29:L78"/>
+    <sheetView topLeftCell="A2" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="E63" sqref="C28:E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.5" defaultRowHeight="14.25"/>
@@ -50407,43 +50111,43 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2">
         <v>2</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2">
         <v>3</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2">
         <v>4</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2">
         <v>5</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2">
         <v>6</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2">
         <v>7</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2">
         <v>8</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2">
         <v>9</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2">
         <v>10</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2">
         <v>11</v>
       </c>
-      <c r="N2" s="1">
+      <c r="N2">
         <v>12</v>
       </c>
       <c r="O2" s="1" t="s">
@@ -50472,23 +50176,59 @@
       </c>
     </row>
     <row r="3" spans="1:23">
-      <c r="B3" s="1">
-        <v>10000</v>
+      <c r="B3">
+        <v>1000</v>
+      </c>
+      <c r="C3">
+        <v>0.18970000000000001</v>
+      </c>
+      <c r="D3">
+        <v>0.1827</v>
+      </c>
+      <c r="E3">
+        <v>0.17960000000000001</v>
+      </c>
+      <c r="F3">
+        <v>0.18240000000000001</v>
+      </c>
+      <c r="G3">
+        <v>0.1827</v>
+      </c>
+      <c r="H3">
+        <v>0.1792</v>
+      </c>
+      <c r="I3">
+        <v>0.18079999999999999</v>
+      </c>
+      <c r="J3">
+        <v>0.18129999999999999</v>
+      </c>
+      <c r="K3">
+        <v>0.18</v>
+      </c>
+      <c r="L3">
+        <v>0.17829999999999999</v>
+      </c>
+      <c r="M3">
+        <v>0.1784</v>
+      </c>
+      <c r="N3">
+        <v>0.1787</v>
       </c>
       <c r="O3" s="1">
         <f t="shared" ref="O3:O10" si="0">MIN(C3:N3)</f>
-        <v>0</v>
+        <v>0.17829999999999999</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" ref="P3:P10" si="1">MAX(C3:N3)</f>
-        <v>0</v>
+        <v>0.18970000000000001</v>
       </c>
       <c r="Q3" s="1">
         <f t="shared" ref="Q3:Q10" si="2">(SUM(C3:N3)-O3-P3)/10</f>
-        <v>0</v>
-      </c>
-      <c r="S3" s="1">
-        <v>10000</v>
+        <v>0.18058000000000002</v>
+      </c>
+      <c r="S3">
+        <v>1000</v>
       </c>
       <c r="W3" s="1" t="e">
         <f t="shared" ref="W3:W10" si="3">AVERAGE(T3:V3)</f>
@@ -50496,23 +50236,59 @@
       </c>
     </row>
     <row r="4" spans="1:23">
-      <c r="B4" s="1">
-        <v>20000</v>
+      <c r="B4">
+        <v>2000</v>
+      </c>
+      <c r="C4">
+        <v>2.54</v>
+      </c>
+      <c r="D4">
+        <v>2.5488</v>
+      </c>
+      <c r="E4">
+        <v>2.5438000000000001</v>
+      </c>
+      <c r="F4">
+        <v>2.5558000000000001</v>
+      </c>
+      <c r="G4">
+        <v>2.5602999999999998</v>
+      </c>
+      <c r="H4">
+        <v>2.5598000000000001</v>
+      </c>
+      <c r="I4">
+        <v>2.5545</v>
+      </c>
+      <c r="J4">
+        <v>2.5537000000000001</v>
+      </c>
+      <c r="K4">
+        <v>2.5510000000000002</v>
+      </c>
+      <c r="L4">
+        <v>2.5565000000000002</v>
+      </c>
+      <c r="M4">
+        <v>2.5533999999999999</v>
+      </c>
+      <c r="N4">
+        <v>2.5611000000000002</v>
       </c>
       <c r="O4" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.5611000000000002</v>
       </c>
       <c r="Q4" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S4" s="1">
-        <v>20000</v>
+        <v>2.55376</v>
+      </c>
+      <c r="S4">
+        <v>2000</v>
       </c>
       <c r="W4" s="1" t="e">
         <f t="shared" si="3"/>
@@ -50520,23 +50296,59 @@
       </c>
     </row>
     <row r="5" spans="1:23">
-      <c r="B5" s="1">
-        <v>30000</v>
+      <c r="B5">
+        <v>3000</v>
+      </c>
+      <c r="C5">
+        <v>11.822800000000001</v>
+      </c>
+      <c r="D5">
+        <v>11.767099999999999</v>
+      </c>
+      <c r="E5">
+        <v>11.7994</v>
+      </c>
+      <c r="F5">
+        <v>11.7744</v>
+      </c>
+      <c r="G5">
+        <v>11.918900000000001</v>
+      </c>
+      <c r="H5">
+        <v>11.945</v>
+      </c>
+      <c r="I5">
+        <v>11.911</v>
+      </c>
+      <c r="J5">
+        <v>11.9587</v>
+      </c>
+      <c r="K5">
+        <v>12.0502</v>
+      </c>
+      <c r="L5">
+        <v>12.0383</v>
+      </c>
+      <c r="M5">
+        <v>12.0535</v>
+      </c>
+      <c r="N5">
+        <v>12.002599999999999</v>
       </c>
       <c r="O5" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11.767099999999999</v>
       </c>
       <c r="P5" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>12.0535</v>
       </c>
       <c r="Q5" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S5" s="1">
-        <v>30000</v>
+        <v>11.922130000000003</v>
+      </c>
+      <c r="S5">
+        <v>3000</v>
       </c>
       <c r="W5" s="1" t="e">
         <f t="shared" si="3"/>
@@ -50544,23 +50356,59 @@
       </c>
     </row>
     <row r="6" spans="1:23">
-      <c r="B6" s="1">
-        <v>40000</v>
+      <c r="B6">
+        <v>4000</v>
+      </c>
+      <c r="C6">
+        <v>31.6129</v>
+      </c>
+      <c r="D6">
+        <v>31.102</v>
+      </c>
+      <c r="E6">
+        <v>30.913399999999999</v>
+      </c>
+      <c r="F6">
+        <v>30.913</v>
+      </c>
+      <c r="G6">
+        <v>30.9361</v>
+      </c>
+      <c r="H6">
+        <v>30.935300000000002</v>
+      </c>
+      <c r="I6">
+        <v>30.815300000000001</v>
+      </c>
+      <c r="J6">
+        <v>30.6709</v>
+      </c>
+      <c r="K6">
+        <v>30.620899999999999</v>
+      </c>
+      <c r="L6">
+        <v>30.993300000000001</v>
+      </c>
+      <c r="M6">
+        <v>30.6249</v>
+      </c>
+      <c r="N6">
+        <v>30.658000000000001</v>
       </c>
       <c r="O6" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30.620899999999999</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>31.6129</v>
       </c>
       <c r="Q6" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S6" s="1">
-        <v>40000</v>
+        <v>30.856219999999997</v>
+      </c>
+      <c r="S6">
+        <v>4000</v>
       </c>
       <c r="W6" s="1" t="e">
         <f t="shared" si="3"/>
@@ -50568,23 +50416,59 @@
       </c>
     </row>
     <row r="7" spans="1:23">
-      <c r="B7" s="1">
-        <v>50000</v>
+      <c r="B7">
+        <v>5000</v>
+      </c>
+      <c r="C7">
+        <v>67.712199999999996</v>
+      </c>
+      <c r="D7">
+        <v>67.954899999999995</v>
+      </c>
+      <c r="E7">
+        <v>67.650300000000001</v>
+      </c>
+      <c r="F7">
+        <v>68.378</v>
+      </c>
+      <c r="G7">
+        <v>68.538899999999998</v>
+      </c>
+      <c r="H7">
+        <v>68.275999999999996</v>
+      </c>
+      <c r="I7">
+        <v>68.275099999999995</v>
+      </c>
+      <c r="J7">
+        <v>68.499499999999998</v>
+      </c>
+      <c r="K7">
+        <v>67.743700000000004</v>
+      </c>
+      <c r="L7">
+        <v>67.847800000000007</v>
+      </c>
+      <c r="M7">
+        <v>67.845399999999998</v>
+      </c>
+      <c r="N7">
+        <v>67.974699999999999</v>
       </c>
       <c r="O7" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>67.650300000000001</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>68.538899999999998</v>
       </c>
       <c r="Q7" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S7" s="1">
-        <v>50000</v>
+        <v>68.050730000000001</v>
+      </c>
+      <c r="S7">
+        <v>5000</v>
       </c>
       <c r="W7" s="1" t="e">
         <f t="shared" si="3"/>
@@ -50592,23 +50476,59 @@
       </c>
     </row>
     <row r="8" spans="1:23">
-      <c r="B8" s="1">
-        <v>60000</v>
+      <c r="B8">
+        <v>6000</v>
+      </c>
+      <c r="C8">
+        <v>119.39400000000001</v>
+      </c>
+      <c r="D8">
+        <v>119.301</v>
+      </c>
+      <c r="E8">
+        <v>118.26609999999999</v>
+      </c>
+      <c r="F8">
+        <v>119.3822</v>
+      </c>
+      <c r="G8">
+        <v>119.9208</v>
+      </c>
+      <c r="H8">
+        <v>119.80759999999999</v>
+      </c>
+      <c r="I8">
+        <v>120.4817</v>
+      </c>
+      <c r="J8">
+        <v>120.4817</v>
+      </c>
+      <c r="K8">
+        <v>120.4817</v>
+      </c>
+      <c r="L8">
+        <v>120.4817</v>
+      </c>
+      <c r="M8">
+        <v>120.4817</v>
+      </c>
+      <c r="N8">
+        <v>120.4817</v>
       </c>
       <c r="O8" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>118.26609999999999</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>120.4817</v>
       </c>
       <c r="Q8" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S8" s="1">
-        <v>60000</v>
+        <v>120.02141000000002</v>
+      </c>
+      <c r="S8">
+        <v>6000</v>
       </c>
       <c r="W8" s="1" t="e">
         <f t="shared" si="3"/>
@@ -50616,48 +50536,18 @@
       </c>
     </row>
     <row r="9" spans="1:23">
-      <c r="B9" s="1">
-        <v>70000</v>
-      </c>
-      <c r="O9" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S9" s="1">
-        <v>70000</v>
-      </c>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="S9" s="1"/>
       <c r="W9" s="1" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10" spans="1:23">
-      <c r="B10" s="1">
-        <v>80000</v>
-      </c>
-      <c r="O10" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S10" s="1">
-        <v>80000</v>
-      </c>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="S10" s="1"/>
       <c r="W10" s="1" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -50994,9 +50884,6 @@
       <c r="B29" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="1">
-        <v>10000</v>
-      </c>
       <c r="H29" s="1" t="s">
         <v>7</v>
       </c>
@@ -51004,7 +50891,7 @@
         <v>9</v>
       </c>
       <c r="J29" s="1">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="O29" s="1" t="s">
         <v>2</v>
@@ -51035,15 +50922,6 @@
       <c r="B30" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="1">
-        <v>1</v>
-      </c>
-      <c r="D30" s="1">
-        <v>2</v>
-      </c>
-      <c r="E30" s="1">
-        <v>3</v>
-      </c>
       <c r="F30" s="1" t="s">
         <v>6</v>
       </c>
@@ -51094,15 +50972,6 @@
       <c r="B31" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="1">
-        <v>400353812</v>
-      </c>
-      <c r="D31" s="1">
-        <v>400353812</v>
-      </c>
-      <c r="E31" s="1">
-        <v>400353812</v>
-      </c>
       <c r="F31" s="1">
         <v>400353812</v>
       </c>
@@ -51110,13 +50979,13 @@
         <v>10</v>
       </c>
       <c r="J31" s="1">
-        <v>400353812</v>
+        <v>4102389</v>
       </c>
       <c r="K31" s="1">
-        <v>400353812</v>
+        <v>4102389</v>
       </c>
       <c r="L31" s="1">
-        <v>400353812</v>
+        <v>4102389</v>
       </c>
       <c r="M31" s="1">
         <v>400353812</v>
@@ -51153,15 +51022,6 @@
       <c r="B32" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="1">
-        <v>160404</v>
-      </c>
-      <c r="D32" s="1">
-        <v>160404</v>
-      </c>
-      <c r="E32" s="1">
-        <v>160404</v>
-      </c>
       <c r="F32" s="1">
         <v>160404</v>
       </c>
@@ -51169,13 +51029,13 @@
         <v>16</v>
       </c>
       <c r="J32" s="1">
-        <v>160404</v>
+        <v>16523</v>
       </c>
       <c r="K32" s="1">
-        <v>160404</v>
+        <v>16523</v>
       </c>
       <c r="L32" s="1">
-        <v>160404</v>
+        <v>16523</v>
       </c>
       <c r="M32" s="1">
         <v>160404</v>
@@ -51212,15 +51072,6 @@
       <c r="B33" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="1">
-        <v>2496</v>
-      </c>
-      <c r="D33" s="1">
-        <v>2496</v>
-      </c>
-      <c r="E33" s="1">
-        <v>2496</v>
-      </c>
       <c r="F33" s="1">
         <v>2496</v>
       </c>
@@ -51228,13 +51079,13 @@
         <v>12</v>
       </c>
       <c r="J33" s="1">
-        <v>640104</v>
+        <v>30360</v>
       </c>
       <c r="K33" s="1">
-        <v>640104</v>
+        <v>30360</v>
       </c>
       <c r="L33" s="1">
-        <v>640104</v>
+        <v>30360</v>
       </c>
       <c r="M33" s="1">
         <v>2496</v>
@@ -51300,14 +51151,11 @@
       <c r="B35" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="1">
-        <v>20000</v>
-      </c>
       <c r="I35" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J35" s="1">
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="P35" s="1">
         <v>60000</v>
@@ -51341,15 +51189,6 @@
       <c r="B36" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C36" s="1">
-        <v>1</v>
-      </c>
-      <c r="D36" s="1">
-        <v>2</v>
-      </c>
-      <c r="E36" s="1">
-        <v>3</v>
-      </c>
       <c r="F36" s="1" t="s">
         <v>6</v>
       </c>
@@ -51372,20 +51211,20 @@
         <v>70000</v>
       </c>
       <c r="Q36" s="1">
-        <f>F67</f>
-        <v>19602033812</v>
+        <f>F69</f>
+        <v>0</v>
       </c>
       <c r="R36" s="1">
-        <f>F68</f>
-        <v>1120404</v>
+        <f>F70</f>
+        <v>0</v>
       </c>
       <c r="S36" s="1">
-        <f>F69</f>
-        <v>2496</v>
+        <f>F71</f>
+        <v>0</v>
       </c>
       <c r="T36" s="1">
         <f t="shared" si="8"/>
-        <v>19603156712</v>
+        <v>0</v>
       </c>
       <c r="U36" s="1" t="e">
         <f t="shared" si="9"/>
@@ -51400,15 +51239,6 @@
       <c r="B37" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C37" s="1">
-        <v>1600633812</v>
-      </c>
-      <c r="D37" s="1">
-        <v>1600633812</v>
-      </c>
-      <c r="E37" s="1">
-        <v>1600633812</v>
-      </c>
       <c r="F37" s="1">
         <v>1600633812</v>
       </c>
@@ -51416,13 +51246,13 @@
         <v>10</v>
       </c>
       <c r="J37" s="1">
-        <v>1600633812</v>
+        <v>16130389</v>
       </c>
       <c r="K37" s="1">
-        <v>1600633812</v>
+        <v>16130389</v>
       </c>
       <c r="L37" s="1">
-        <v>1600633812</v>
+        <v>16130389</v>
       </c>
       <c r="M37" s="1">
         <v>1600633812</v>
@@ -51431,20 +51261,20 @@
         <v>80000</v>
       </c>
       <c r="Q37" s="1">
-        <f>F73</f>
-        <v>25602313812</v>
+        <f>F75</f>
+        <v>0</v>
       </c>
       <c r="R37" s="1">
-        <f>F74</f>
-        <v>1280404</v>
+        <f>F76</f>
+        <v>0</v>
       </c>
       <c r="S37" s="1">
-        <f>F75</f>
-        <v>2496</v>
+        <f>F77</f>
+        <v>0</v>
       </c>
       <c r="T37" s="1">
         <f t="shared" si="8"/>
-        <v>25603596712</v>
+        <v>0</v>
       </c>
       <c r="U37" s="1" t="e">
         <f t="shared" si="9"/>
@@ -51459,15 +51289,6 @@
       <c r="B38" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="1">
-        <v>320404</v>
-      </c>
-      <c r="D38" s="1">
-        <v>320404</v>
-      </c>
-      <c r="E38" s="1">
-        <v>320404</v>
-      </c>
       <c r="F38" s="1">
         <v>320404</v>
       </c>
@@ -51475,13 +51296,13 @@
         <v>16</v>
       </c>
       <c r="J38" s="1">
-        <v>320404</v>
+        <v>32523</v>
       </c>
       <c r="K38" s="1">
-        <v>320404</v>
+        <v>32523</v>
       </c>
       <c r="L38" s="1">
-        <v>320404</v>
+        <v>32523</v>
       </c>
       <c r="M38" s="1">
         <v>320404</v>
@@ -51491,15 +51312,6 @@
       <c r="B39" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="1">
-        <v>2496</v>
-      </c>
-      <c r="D39" s="1">
-        <v>2496</v>
-      </c>
-      <c r="E39" s="1">
-        <v>2496</v>
-      </c>
       <c r="F39" s="1">
         <v>2496</v>
       </c>
@@ -51507,13 +51319,13 @@
         <v>12</v>
       </c>
       <c r="J39" s="1">
-        <v>1276080</v>
+        <v>62696</v>
       </c>
       <c r="K39" s="1">
-        <v>1276080</v>
+        <v>62696</v>
       </c>
       <c r="L39" s="1">
-        <v>1276080</v>
+        <v>62696</v>
       </c>
       <c r="M39" s="1">
         <v>2496</v>
@@ -51523,29 +51335,17 @@
       <c r="B41" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C41" s="1">
-        <v>30000</v>
-      </c>
       <c r="I41" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J41" s="1">
-        <v>30000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="42" spans="2:22">
       <c r="B42" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C42" s="1">
-        <v>1</v>
-      </c>
-      <c r="D42" s="1">
-        <v>2</v>
-      </c>
-      <c r="E42" s="1">
-        <v>3</v>
-      </c>
       <c r="F42" s="1" t="s">
         <v>6</v>
       </c>
@@ -51593,15 +51393,6 @@
       <c r="B43" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C43" s="1">
-        <v>3600913812</v>
-      </c>
-      <c r="D43" s="1">
-        <v>3600913812</v>
-      </c>
-      <c r="E43" s="1">
-        <v>3600913812</v>
-      </c>
       <c r="F43" s="1">
         <v>3600913812</v>
       </c>
@@ -51609,13 +51400,13 @@
         <v>10</v>
       </c>
       <c r="J43" s="1">
-        <v>3600913812</v>
+        <v>36158389</v>
       </c>
       <c r="K43" s="1">
-        <v>3600913812</v>
+        <v>36158389</v>
       </c>
       <c r="L43" s="1">
-        <v>3600913812</v>
+        <v>36158389</v>
       </c>
       <c r="M43" s="1">
         <v>3600913812</v>
@@ -51652,15 +51443,6 @@
       <c r="B44" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C44" s="1">
-        <v>480404</v>
-      </c>
-      <c r="D44" s="1">
-        <v>480404</v>
-      </c>
-      <c r="E44" s="1">
-        <v>480404</v>
-      </c>
       <c r="F44" s="1">
         <v>480404</v>
       </c>
@@ -51668,13 +51450,13 @@
         <v>16</v>
       </c>
       <c r="J44" s="1">
-        <v>480404</v>
+        <v>48523</v>
       </c>
       <c r="K44" s="1">
-        <v>480404</v>
+        <v>48523</v>
       </c>
       <c r="L44" s="1">
-        <v>480404</v>
+        <v>48523</v>
       </c>
       <c r="M44" s="1">
         <v>480404</v>
@@ -51711,15 +51493,6 @@
       <c r="B45" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C45" s="1">
-        <v>2496</v>
-      </c>
-      <c r="D45" s="1">
-        <v>2496</v>
-      </c>
-      <c r="E45" s="1">
-        <v>2496</v>
-      </c>
       <c r="F45" s="1">
         <v>2496</v>
       </c>
@@ -51727,13 +51500,13 @@
         <v>12</v>
       </c>
       <c r="J45" s="1">
-        <v>1911208</v>
+        <v>89848</v>
       </c>
       <c r="K45" s="1">
-        <v>1911208</v>
+        <v>89848</v>
       </c>
       <c r="L45" s="1">
-        <v>1911208</v>
+        <v>89848</v>
       </c>
       <c r="M45" s="1">
         <v>2496</v>
@@ -51799,14 +51572,11 @@
       <c r="B47" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C47" s="1">
-        <v>40000</v>
-      </c>
       <c r="I47" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J47" s="1">
-        <v>40000</v>
+        <v>4000</v>
       </c>
       <c r="P47" s="1">
         <v>50000</v>
@@ -51840,15 +51610,6 @@
       <c r="B48" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C48" s="1">
-        <v>1</v>
-      </c>
-      <c r="D48" s="1">
-        <v>2</v>
-      </c>
-      <c r="E48" s="1">
-        <v>3</v>
-      </c>
       <c r="F48" s="1" t="s">
         <v>6</v>
       </c>
@@ -51899,15 +51660,6 @@
       <c r="B49" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C49" s="1">
-        <v>6401193812</v>
-      </c>
-      <c r="D49" s="1">
-        <v>6401193812</v>
-      </c>
-      <c r="E49" s="1">
-        <v>6401193812</v>
-      </c>
       <c r="F49" s="1">
         <v>6401193812</v>
       </c>
@@ -51915,13 +51667,13 @@
         <v>10</v>
       </c>
       <c r="J49" s="1">
-        <v>6401193812</v>
+        <v>64186389</v>
       </c>
       <c r="K49" s="1">
-        <v>6401193812</v>
+        <v>64186389</v>
       </c>
       <c r="L49" s="1">
-        <v>6401193812</v>
+        <v>64186389</v>
       </c>
       <c r="M49" s="1">
         <v>6401193812</v>
@@ -51930,20 +51682,20 @@
         <v>70000</v>
       </c>
       <c r="Q49" s="1">
-        <f>M67</f>
-        <v>19602033812</v>
+        <f>M69</f>
+        <v>0</v>
       </c>
       <c r="R49" s="1">
-        <f>M68</f>
-        <v>1120404</v>
+        <f>M70</f>
+        <v>0</v>
       </c>
       <c r="S49" s="1">
-        <f>M69</f>
-        <v>2496</v>
+        <f>M71</f>
+        <v>0</v>
       </c>
       <c r="T49" s="1">
         <f t="shared" si="10"/>
-        <v>19603156712</v>
+        <v>0</v>
       </c>
       <c r="U49" s="1" t="e">
         <f t="shared" si="11"/>
@@ -51958,15 +51710,6 @@
       <c r="B50" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C50" s="1">
-        <v>640404</v>
-      </c>
-      <c r="D50" s="1">
-        <v>640404</v>
-      </c>
-      <c r="E50" s="1">
-        <v>640404</v>
-      </c>
       <c r="F50" s="1">
         <v>640404</v>
       </c>
@@ -51974,13 +51717,13 @@
         <v>16</v>
       </c>
       <c r="J50" s="1">
-        <v>640404</v>
+        <v>64523</v>
       </c>
       <c r="K50" s="1">
-        <v>640404</v>
+        <v>64523</v>
       </c>
       <c r="L50" s="1">
-        <v>640404</v>
+        <v>64523</v>
       </c>
       <c r="M50" s="1">
         <v>640404</v>
@@ -51989,20 +51732,20 @@
         <v>80000</v>
       </c>
       <c r="Q50" s="1">
-        <f>M73</f>
-        <v>25602313812</v>
+        <f>M75</f>
+        <v>0</v>
       </c>
       <c r="R50" s="1">
-        <f>M74</f>
-        <v>1280404</v>
+        <f>M76</f>
+        <v>0</v>
       </c>
       <c r="S50" s="1">
-        <f>M75</f>
-        <v>2496</v>
+        <f>M77</f>
+        <v>0</v>
       </c>
       <c r="T50" s="1">
         <f t="shared" si="10"/>
-        <v>25603596712</v>
+        <v>0</v>
       </c>
       <c r="U50" s="1" t="e">
         <f t="shared" si="11"/>
@@ -52017,15 +51760,6 @@
       <c r="B51" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C51" s="1">
-        <v>2496</v>
-      </c>
-      <c r="D51" s="1">
-        <v>2496</v>
-      </c>
-      <c r="E51" s="1">
-        <v>2496</v>
-      </c>
       <c r="F51" s="1">
         <v>2496</v>
       </c>
@@ -52033,13 +51767,13 @@
         <v>12</v>
       </c>
       <c r="J51" s="1">
-        <v>2555696</v>
+        <v>116600</v>
       </c>
       <c r="K51" s="1">
-        <v>2555696</v>
+        <v>116600</v>
       </c>
       <c r="L51" s="1">
-        <v>2555696</v>
+        <v>116600</v>
       </c>
       <c r="M51" s="1">
         <v>2496</v>
@@ -52049,29 +51783,17 @@
       <c r="B53" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C53" s="1">
-        <v>50000</v>
-      </c>
       <c r="I53" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J53" s="1">
-        <v>50000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="54" spans="2:22">
       <c r="B54" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C54" s="1">
-        <v>1</v>
-      </c>
-      <c r="D54" s="1">
-        <v>2</v>
-      </c>
-      <c r="E54" s="1">
-        <v>3</v>
-      </c>
       <c r="F54" s="1" t="s">
         <v>6</v>
       </c>
@@ -52095,15 +51817,6 @@
       <c r="B55" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C55" s="1">
-        <v>10001473812</v>
-      </c>
-      <c r="D55" s="1">
-        <v>10001473812</v>
-      </c>
-      <c r="E55" s="1">
-        <v>10001473812</v>
-      </c>
       <c r="F55" s="1">
         <v>10001473812</v>
       </c>
@@ -52111,13 +51824,13 @@
         <v>10</v>
       </c>
       <c r="J55" s="1">
-        <v>10001473812</v>
+        <v>100214389</v>
       </c>
       <c r="K55" s="1">
-        <v>10001473812</v>
+        <v>100214389</v>
       </c>
       <c r="L55" s="1">
-        <v>10001473812</v>
+        <v>100214389</v>
       </c>
       <c r="M55" s="1">
         <v>10001473812</v>
@@ -52127,15 +51840,6 @@
       <c r="B56" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C56" s="1">
-        <v>800404</v>
-      </c>
-      <c r="D56" s="1">
-        <v>800404</v>
-      </c>
-      <c r="E56" s="1">
-        <v>800404</v>
-      </c>
       <c r="F56" s="1">
         <v>800404</v>
       </c>
@@ -52143,13 +51847,13 @@
         <v>16</v>
       </c>
       <c r="J56" s="1">
-        <v>800404</v>
+        <v>80523</v>
       </c>
       <c r="K56" s="1">
-        <v>800404</v>
+        <v>80523</v>
       </c>
       <c r="L56" s="1">
-        <v>800404</v>
+        <v>80523</v>
       </c>
       <c r="M56" s="1">
         <v>800404</v>
@@ -52159,15 +51863,6 @@
       <c r="B57" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C57" s="1">
-        <v>2496</v>
-      </c>
-      <c r="D57" s="1">
-        <v>2496</v>
-      </c>
-      <c r="E57" s="1">
-        <v>2496</v>
-      </c>
       <c r="F57" s="1">
         <v>2496</v>
       </c>
@@ -52175,13 +51870,13 @@
         <v>12</v>
       </c>
       <c r="J57" s="1">
-        <v>3199856</v>
+        <v>139480</v>
       </c>
       <c r="K57" s="1">
-        <v>3199856</v>
+        <v>139480</v>
       </c>
       <c r="L57" s="1">
-        <v>3199856</v>
+        <v>139480</v>
       </c>
       <c r="M57" s="1">
         <v>2496</v>
@@ -52191,29 +51886,17 @@
       <c r="B59" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C59" s="1">
-        <v>60000</v>
-      </c>
       <c r="I59" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J59" s="1">
-        <v>60000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="60" spans="2:22">
       <c r="B60" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C60" s="1">
-        <v>1</v>
-      </c>
-      <c r="D60" s="1">
-        <v>2</v>
-      </c>
-      <c r="E60" s="1">
-        <v>3</v>
-      </c>
       <c r="F60" s="1" t="s">
         <v>6</v>
       </c>
@@ -52237,15 +51920,6 @@
       <c r="B61" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C61" s="1">
-        <v>14401753812</v>
-      </c>
-      <c r="D61" s="1">
-        <v>14401753812</v>
-      </c>
-      <c r="E61" s="1">
-        <v>14401753812</v>
-      </c>
       <c r="F61" s="1">
         <v>14401753812</v>
       </c>
@@ -52253,13 +51927,13 @@
         <v>10</v>
       </c>
       <c r="J61" s="1">
-        <v>14401753812</v>
+        <v>144242389</v>
       </c>
       <c r="K61" s="1">
-        <v>14401753812</v>
+        <v>144242389</v>
       </c>
       <c r="L61" s="1">
-        <v>14401753812</v>
+        <v>144242389</v>
       </c>
       <c r="M61" s="1">
         <v>14401753812</v>
@@ -52269,15 +51943,6 @@
       <c r="B62" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C62" s="1">
-        <v>960404</v>
-      </c>
-      <c r="D62" s="1">
-        <v>960404</v>
-      </c>
-      <c r="E62" s="1">
-        <v>960404</v>
-      </c>
       <c r="F62" s="1">
         <v>960404</v>
       </c>
@@ -52285,13 +51950,13 @@
         <v>16</v>
       </c>
       <c r="J62" s="1">
-        <v>960404</v>
+        <v>96523</v>
       </c>
       <c r="K62" s="1">
-        <v>960404</v>
+        <v>96523</v>
       </c>
       <c r="L62" s="1">
-        <v>960404</v>
+        <v>96523</v>
       </c>
       <c r="M62" s="1">
         <v>960404</v>
@@ -52301,15 +51966,6 @@
       <c r="B63" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C63" s="1">
-        <v>2496</v>
-      </c>
-      <c r="D63" s="1">
-        <v>2496</v>
-      </c>
-      <c r="E63" s="1">
-        <v>2496</v>
-      </c>
       <c r="F63" s="1">
         <v>2496</v>
       </c>
@@ -52317,299 +51973,15 @@
         <v>12</v>
       </c>
       <c r="J63" s="1">
-        <v>3832560</v>
+        <v>180616</v>
       </c>
       <c r="K63" s="1">
-        <v>3832560</v>
+        <v>180616</v>
       </c>
       <c r="L63" s="1">
-        <v>3832560</v>
+        <v>180616</v>
       </c>
       <c r="M63" s="1">
-        <v>2496</v>
-      </c>
-    </row>
-    <row r="65" spans="2:13">
-      <c r="B65" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C65" s="1">
-        <v>70000</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J65" s="1">
-        <v>70000</v>
-      </c>
-    </row>
-    <row r="66" spans="2:13">
-      <c r="B66" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C66" s="1">
-        <v>1</v>
-      </c>
-      <c r="D66" s="1">
-        <v>2</v>
-      </c>
-      <c r="E66" s="1">
-        <v>3</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J66" s="1">
-        <v>1</v>
-      </c>
-      <c r="K66" s="1">
-        <v>2</v>
-      </c>
-      <c r="L66" s="1">
-        <v>3</v>
-      </c>
-      <c r="M66" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="67" spans="2:13">
-      <c r="B67" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C67" s="1">
-        <v>19602033812</v>
-      </c>
-      <c r="D67" s="1">
-        <v>19602033812</v>
-      </c>
-      <c r="E67" s="1">
-        <v>19602033812</v>
-      </c>
-      <c r="F67" s="1">
-        <v>19602033812</v>
-      </c>
-      <c r="I67" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J67" s="1">
-        <v>19602033812</v>
-      </c>
-      <c r="K67" s="1">
-        <v>19602033812</v>
-      </c>
-      <c r="L67" s="1">
-        <v>19602033812</v>
-      </c>
-      <c r="M67" s="1">
-        <v>19602033812</v>
-      </c>
-    </row>
-    <row r="68" spans="2:13">
-      <c r="B68" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C68" s="1">
-        <v>1120404</v>
-      </c>
-      <c r="D68" s="1">
-        <v>1120404</v>
-      </c>
-      <c r="E68" s="1">
-        <v>1120404</v>
-      </c>
-      <c r="F68" s="1">
-        <v>1120404</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J68" s="1">
-        <v>1120404</v>
-      </c>
-      <c r="K68" s="1">
-        <v>1120404</v>
-      </c>
-      <c r="L68" s="1">
-        <v>1120404</v>
-      </c>
-      <c r="M68" s="1">
-        <v>1120404</v>
-      </c>
-    </row>
-    <row r="69" spans="2:13">
-      <c r="B69" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C69" s="1">
-        <v>2496</v>
-      </c>
-      <c r="D69" s="1">
-        <v>2496</v>
-      </c>
-      <c r="E69" s="1">
-        <v>2496</v>
-      </c>
-      <c r="F69" s="1">
-        <v>2496</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J69" s="1">
-        <v>4470640</v>
-      </c>
-      <c r="K69" s="1">
-        <v>4470640</v>
-      </c>
-      <c r="L69" s="1">
-        <v>4470640</v>
-      </c>
-      <c r="M69" s="1">
-        <v>2496</v>
-      </c>
-    </row>
-    <row r="71" spans="2:13">
-      <c r="B71" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C71" s="1">
-        <v>80000</v>
-      </c>
-      <c r="I71" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J71" s="1">
-        <v>80000</v>
-      </c>
-    </row>
-    <row r="72" spans="2:13">
-      <c r="B72" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C72" s="1">
-        <v>1</v>
-      </c>
-      <c r="D72" s="1">
-        <v>2</v>
-      </c>
-      <c r="E72" s="1">
-        <v>3</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I72" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J72" s="1">
-        <v>1</v>
-      </c>
-      <c r="K72" s="1">
-        <v>2</v>
-      </c>
-      <c r="L72" s="1">
-        <v>3</v>
-      </c>
-      <c r="M72" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="73" spans="2:13">
-      <c r="B73" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C73" s="1">
-        <v>25602313812</v>
-      </c>
-      <c r="D73" s="1">
-        <v>25602313812</v>
-      </c>
-      <c r="E73" s="1">
-        <v>25602313812</v>
-      </c>
-      <c r="F73" s="1">
-        <v>25602313812</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J73" s="1">
-        <v>25602313812</v>
-      </c>
-      <c r="K73" s="1">
-        <v>25602313812</v>
-      </c>
-      <c r="L73" s="1">
-        <v>25602313812</v>
-      </c>
-      <c r="M73" s="1">
-        <v>25602313812</v>
-      </c>
-    </row>
-    <row r="74" spans="2:13">
-      <c r="B74" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C74" s="1">
-        <v>1280404</v>
-      </c>
-      <c r="D74" s="1">
-        <v>1280404</v>
-      </c>
-      <c r="E74" s="1">
-        <v>1280404</v>
-      </c>
-      <c r="F74" s="1">
-        <v>1280404</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J74" s="1">
-        <v>1280404</v>
-      </c>
-      <c r="K74" s="1">
-        <v>1280404</v>
-      </c>
-      <c r="L74" s="1">
-        <v>1280404</v>
-      </c>
-      <c r="M74" s="1">
-        <v>1280404</v>
-      </c>
-    </row>
-    <row r="75" spans="2:13">
-      <c r="B75" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C75" s="1">
-        <v>2496</v>
-      </c>
-      <c r="D75" s="1">
-        <v>2496</v>
-      </c>
-      <c r="E75" s="1">
-        <v>2496</v>
-      </c>
-      <c r="F75" s="1">
-        <v>2496</v>
-      </c>
-      <c r="I75" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J75" s="1">
-        <v>5033584</v>
-      </c>
-      <c r="K75" s="1">
-        <v>5033584</v>
-      </c>
-      <c r="L75" s="1">
-        <v>5033584</v>
-      </c>
-      <c r="M75" s="1">
         <v>2496</v>
       </c>
     </row>
@@ -52628,7 +52000,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:W81"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="N11" sqref="B2:N11"/>
     </sheetView>
   </sheetViews>
@@ -61835,7 +61207,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:W69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="N10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
